--- a/48.aza/extracted_data/48.zooData.xlsx
+++ b/48.aza/extracted_data/48.zooData.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Upwork\Task01\Multiple_Directories_Web_scraping\48.aza\extracted_data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15870FC1-2E69-4591-8658-8D463DE00127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="735">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="553">
   <si>
     <t>title</t>
   </si>
@@ -43,9 +38,6 @@
     <t>https://www.adventureaquarium.com/</t>
   </si>
   <si>
-    <t>N.J. Accredited through March 2025</t>
-  </si>
-  <si>
     <t>N.J.</t>
   </si>
   <si>
@@ -55,9 +47,6 @@
     <t>https://africamsafari.com/</t>
   </si>
   <si>
-    <t>Mexico Accredited through March 2027</t>
-  </si>
-  <si>
     <t>Mexico</t>
   </si>
   <si>
@@ -67,9 +56,6 @@
     <t>https://www.akronzoo.org/</t>
   </si>
   <si>
-    <t>Ohio Accredited through September 2026</t>
-  </si>
-  <si>
     <t>Ohio</t>
   </si>
   <si>
@@ -79,9 +65,6 @@
     <t>https://www.alaskasealife.org/</t>
   </si>
   <si>
-    <t>AlaskaAccredited through September 2027</t>
-  </si>
-  <si>
     <t>Alaska</t>
   </si>
   <si>
@@ -91,9 +74,6 @@
     <t>https://www.bioparksociety.org/main/abq-biopark/</t>
   </si>
   <si>
-    <t>N.M. Accredited through September 2026</t>
-  </si>
-  <si>
     <t>N.M.</t>
   </si>
   <si>
@@ -103,9 +83,6 @@
     <t>https://aquariumofniagara.org/</t>
   </si>
   <si>
-    <t>N.Y.Accredited through March 2025</t>
-  </si>
-  <si>
     <t>N.Y.</t>
   </si>
   <si>
@@ -115,9 +92,6 @@
     <t>https://www.aquariumofthebay.org/</t>
   </si>
   <si>
-    <t>Calif. Accredited through March 2028</t>
-  </si>
-  <si>
     <t>Calif.</t>
   </si>
   <si>
@@ -127,27 +101,18 @@
     <t>https://www.aquariumofpacific.org/</t>
   </si>
   <si>
-    <t>Calif. Accredited through March 2026</t>
-  </si>
-  <si>
     <t>Aquarium of the Port of Veracruz</t>
   </si>
   <si>
     <t>https://www.aquariumpuertodeveracruz.mx/</t>
   </si>
   <si>
-    <t>Mexico Accredited through March</t>
-  </si>
-  <si>
     <t>Arizona Sonora Desert Museum</t>
   </si>
   <si>
     <t>https://www.desertmuseum.org/</t>
   </si>
   <si>
-    <t>Ariz. Accredited through March 2026</t>
-  </si>
-  <si>
     <t>Ariz.</t>
   </si>
   <si>
@@ -157,9 +122,6 @@
     <t>https://www.assiniboinepark.ca/</t>
   </si>
   <si>
-    <t>CanadaAccredited through September 2025</t>
-  </si>
-  <si>
     <t>Canada</t>
   </si>
   <si>
@@ -190,9 +152,6 @@
     <t>https://audubonnatureinstitute.org/aquarium</t>
   </si>
   <si>
-    <t>La. Accredited through March 2025</t>
-  </si>
-  <si>
     <t>La.</t>
   </si>
   <si>
@@ -202,18 +161,12 @@
     <t>https://audubonnatureinstitute.org/zoo</t>
   </si>
   <si>
-    <t>La. Accredited through March 2029</t>
-  </si>
-  <si>
     <t>Bailey-Matthews National Shell Museum &amp; Aquarium</t>
   </si>
   <si>
     <t>https://www.shellmuseum.org/</t>
   </si>
   <si>
-    <t>Fla.Accredited through March 2028(also accredited by the American Alliance of Museums)</t>
-  </si>
-  <si>
     <t>Fla.</t>
   </si>
   <si>
@@ -226,9 +179,6 @@
     <t>https://bearhabitat.web.baylor.edu/</t>
   </si>
   <si>
-    <t>TexasAccredited through September 2026</t>
-  </si>
-  <si>
     <t>Texas</t>
   </si>
   <si>
@@ -250,9 +200,6 @@
     <t>https://binderparkzoo.org/</t>
   </si>
   <si>
-    <t>Mich. Accredited through September 2025</t>
-  </si>
-  <si>
     <t>Mich.</t>
   </si>
   <si>
@@ -262,18 +209,12 @@
     <t>https://aquarium.ucsd.edu/</t>
   </si>
   <si>
-    <t>Calif. Accredited through March 2029</t>
-  </si>
-  <si>
     <t>Birmingham Zoo</t>
   </si>
   <si>
     <t>https://www.birminghamzoo.com/</t>
   </si>
   <si>
-    <t>Ala. Accredited through March 2028</t>
-  </si>
-  <si>
     <t>Ala.</t>
   </si>
   <si>
@@ -283,9 +224,6 @@
     <t>https://www.blankparkzoo.com/</t>
   </si>
   <si>
-    <t>Iowa Accredited through September 2024</t>
-  </si>
-  <si>
     <t>Iowa</t>
   </si>
   <si>
@@ -295,9 +233,6 @@
     <t>https://boonshoft.org/</t>
   </si>
   <si>
-    <t>Ohio Accredited through March 2027(also accredited by the American Alliance of Museums)</t>
-  </si>
-  <si>
     <t>March 2027(also accredited by the American Alliance of Museums)</t>
   </si>
   <si>
@@ -307,9 +242,6 @@
     <t>https://www.brambleparkzoo.com/</t>
   </si>
   <si>
-    <t>S.D.Accredited through September 2024</t>
-  </si>
-  <si>
     <t>S.D.</t>
   </si>
   <si>
@@ -319,9 +251,6 @@
     <t>https://brandywinezoo.org/</t>
   </si>
   <si>
-    <t>Del.Accredited through September 2027</t>
-  </si>
-  <si>
     <t>Del.</t>
   </si>
   <si>
@@ -331,36 +260,24 @@
     <t>https://brzoo.org/</t>
   </si>
   <si>
-    <t>La.Accredited through March 2029</t>
-  </si>
-  <si>
     <t>Brevard Zoo</t>
   </si>
   <si>
     <t>https://brevardzoo.org/</t>
   </si>
   <si>
-    <t>Fla. Accredited through March 2029</t>
-  </si>
-  <si>
     <t>Bronx Zoo/WCS</t>
   </si>
   <si>
     <t>https://bronxzoo.com/</t>
   </si>
   <si>
-    <t>N.Y. Accredited through September 2024</t>
-  </si>
-  <si>
     <t>Brookgreen Gardens</t>
   </si>
   <si>
     <t>https://www.brookgreen.org/low-country-zoo</t>
   </si>
   <si>
-    <t>S.C.Accredited through September 2024(also accredited by the American Alliance of Museums)</t>
-  </si>
-  <si>
     <t>S.C.</t>
   </si>
   <si>
@@ -373,27 +290,18 @@
     <t>https://buffalozoo.org/</t>
   </si>
   <si>
-    <t>N.Y.Accredited through September 2027</t>
-  </si>
-  <si>
     <t>Busch Gardens Tampa Bay</t>
   </si>
   <si>
     <t>https://buschgardens.com/tampa/zoo/animals/</t>
   </si>
   <si>
-    <t>Fla. Accredited through March 2027</t>
-  </si>
-  <si>
     <t>The Butterfly House</t>
   </si>
   <si>
     <t>https://www.missouribotanicalgarden.org/plan-your-visit/family-of-attractions/butterfly-house</t>
   </si>
   <si>
-    <t>Mo. Accredited through March 2025</t>
-  </si>
-  <si>
     <t>Mo.</t>
   </si>
   <si>
@@ -403,9 +311,6 @@
     <t>https://butterflies.org/</t>
   </si>
   <si>
-    <t>Colo.Accredited through March 2026</t>
-  </si>
-  <si>
     <t>Colo.</t>
   </si>
   <si>
@@ -415,9 +320,6 @@
     <t>https://www.bpzoo.org/</t>
   </si>
   <si>
-    <t>Mass.Accredited through September 2024</t>
-  </si>
-  <si>
     <t>Mass.</t>
   </si>
   <si>
@@ -427,54 +329,36 @@
     <t>https://www.cabrillomarineaquarium.org/</t>
   </si>
   <si>
-    <t>Calif.Accredited through March 2027</t>
-  </si>
-  <si>
     <t>Caldwell Zoo</t>
   </si>
   <si>
     <t>https://caldwellzoo.org/</t>
   </si>
   <si>
-    <t>Texas Accredited through March 2026</t>
-  </si>
-  <si>
     <t>California Science Center</t>
   </si>
   <si>
     <t>https://californiasciencecenter.org/</t>
   </si>
   <si>
-    <t>Calif.Accredited through March 2027(also accredited by the American Alliance of Museums)</t>
-  </si>
-  <si>
     <t>Cameron Park Zoo</t>
   </si>
   <si>
     <t>https://www.cameronparkzoo.com/</t>
   </si>
   <si>
-    <t>Texas Accredited through March 2027</t>
-  </si>
-  <si>
     <t>Cape May County Park Zoo</t>
   </si>
   <si>
     <t>https://www.capemaycountynj.gov/1008/Park-Zoo</t>
   </si>
   <si>
-    <t>N.J. Accredited through September 2028</t>
-  </si>
-  <si>
     <t>Capron Park Zoo</t>
   </si>
   <si>
     <t>https://capronparkzoo.com/animal-collection/</t>
   </si>
   <si>
-    <t>Mass. Accredited through September 2027</t>
-  </si>
-  <si>
     <t>Central Florida Zoological Park</t>
   </si>
   <si>
@@ -487,27 +371,18 @@
     <t>https://centralparkzoo.com/</t>
   </si>
   <si>
-    <t>N.Y. Accredited through September 2025</t>
-  </si>
-  <si>
     <t>Charles Paddock Zoo</t>
   </si>
   <si>
     <t>https://charlespaddockzoo.org/</t>
   </si>
   <si>
-    <t>Calif. Accredited through March 2025</t>
-  </si>
-  <si>
     <t>Chattanooga Zoo at Warner Park</t>
   </si>
   <si>
     <t>https://www.chattzoo.org/</t>
   </si>
   <si>
-    <t>Tenn. Accredited through September 2024</t>
-  </si>
-  <si>
     <t>Tenn.</t>
   </si>
   <si>
@@ -517,18 +392,12 @@
     <t>https://www.cmzoo.org/</t>
   </si>
   <si>
-    <t>Colo. Accredited through September 2026</t>
-  </si>
-  <si>
     <t>Brookfield Zoo Chicago</t>
   </si>
   <si>
     <t>https://czs.org/BrookfieldZoo</t>
   </si>
   <si>
-    <t>Ill. Accredited through September 2024</t>
-  </si>
-  <si>
     <t>Ill.</t>
   </si>
   <si>
@@ -538,9 +407,6 @@
     <t>https://cincinnatizoo.org/</t>
   </si>
   <si>
-    <t>Ohio Accredited through September 2025(also accredited by the American Alliance of Museums)</t>
-  </si>
-  <si>
     <t>September 2025(also accredited by the American Alliance of Museums)</t>
   </si>
   <si>
@@ -550,18 +416,12 @@
     <t>https://www.clevelandmetroparks.com/zoo</t>
   </si>
   <si>
-    <t>Ohio Accredited through September 2025</t>
-  </si>
-  <si>
     <t>Clyde Peeling's Reptiland</t>
   </si>
   <si>
     <t>https://reptiland.com/</t>
   </si>
   <si>
-    <t>Pa. Accredited through September 2024</t>
-  </si>
-  <si>
     <t>Pa.</t>
   </si>
   <si>
@@ -571,18 +431,12 @@
     <t>https://www.columbuszoo.org/</t>
   </si>
   <si>
-    <t>Ohio Accredited through September 2028</t>
-  </si>
-  <si>
     <t>Como Park Zoo and Conservatory</t>
   </si>
   <si>
     <t>https://comozooconservatory.org/</t>
   </si>
   <si>
-    <t>Minn. Accredited through September 2026</t>
-  </si>
-  <si>
     <t>Minn.</t>
   </si>
   <si>
@@ -592,9 +446,6 @@
     <t>https://www.beardsleyzoo.org/</t>
   </si>
   <si>
-    <t>Conn.Accredited through September 2024</t>
-  </si>
-  <si>
     <t>Conn.</t>
   </si>
   <si>
@@ -604,27 +455,18 @@
     <t>https://cosleyzoo.org/</t>
   </si>
   <si>
-    <t>Ill. Accredited through September 2026</t>
-  </si>
-  <si>
     <t>CuriOdyssey</t>
   </si>
   <si>
     <t>https://curiodyssey.org/</t>
   </si>
   <si>
-    <t>Calif. Accredited through March 2027</t>
-  </si>
-  <si>
     <t>Dakota Zoo</t>
   </si>
   <si>
     <t>https://www.dakotazoo.org/</t>
   </si>
   <si>
-    <t>N.D.  Accredited through September 2028</t>
-  </si>
-  <si>
     <t>N.D.</t>
   </si>
   <si>
@@ -634,9 +476,6 @@
     <t>https://dwazoo.com/</t>
   </si>
   <si>
-    <t>Texas Accredited through March 2028</t>
-  </si>
-  <si>
     <t>Dallas Zoo</t>
   </si>
   <si>
@@ -649,9 +488,6 @@
     <t>https://www.emporiaks.gov/159/David-Traylor-Zoo</t>
   </si>
   <si>
-    <t>Kan. Accredited through September 2027</t>
-  </si>
-  <si>
     <t>Kan.</t>
   </si>
   <si>
@@ -661,54 +497,36 @@
     <t>https://denverzoo.org/</t>
   </si>
   <si>
-    <t>Colo. Accredited through September 2028</t>
-  </si>
-  <si>
     <t>Detroit Zoological Park</t>
   </si>
   <si>
     <t>https://detroitzoo.org/</t>
   </si>
   <si>
-    <t>Mich. Accredited through September 2027</t>
-  </si>
-  <si>
     <t>Dickerson Park Zoo</t>
   </si>
   <si>
     <t>https://dickersonparkzoo.org/</t>
   </si>
   <si>
-    <t>Mo. Accredited through September 2028</t>
-  </si>
-  <si>
     <t>Discovery Cove</t>
   </si>
   <si>
     <t>https://discoverycove.com/orlando/</t>
   </si>
   <si>
-    <t>Fla.Accredited through March 2026</t>
-  </si>
-  <si>
     <t>Disney's Animal Kingdom</t>
   </si>
   <si>
     <t>https://disneyworld.disney.go.com/destinations/animal-kingdom/</t>
   </si>
   <si>
-    <t>Fla. Accredited through March 2026</t>
-  </si>
-  <si>
     <t>Dolphin Discovery Cozumel</t>
   </si>
   <si>
     <t>https://www.dolphindiscovery.com/cozumel/</t>
   </si>
   <si>
-    <t>MexicoAccredited through March 2029</t>
-  </si>
-  <si>
     <t>Dolphin Discovery Isla Mujeres</t>
   </si>
   <si>
@@ -721,7 +539,7 @@
     <t>https://www.dolphindiscovery.com/punta-cana/</t>
   </si>
   <si>
-    <t>Dominican RepublicAccredited through March 2025</t>
+    <t>Dominican Republic</t>
   </si>
   <si>
     <t>Dominican</t>
@@ -733,9 +551,6 @@
     <t>https://www.sentosa.com.sg/en/things-to-do/attractions/dolphin-island/</t>
   </si>
   <si>
-    <t>SingaporeAccredited through March 2026</t>
-  </si>
-  <si>
     <t>Singapore</t>
   </si>
   <si>
@@ -745,25 +560,19 @@
     <t>https://www.elpasozoo.org/</t>
   </si>
   <si>
-    <t>TexasAccredited through March 2025</t>
-  </si>
-  <si>
     <t>Elmwood Park Zoo</t>
   </si>
   <si>
     <t>https://www.elmwoodparkzoo.org/</t>
   </si>
   <si>
-    <t>Pa.Accredited through September 2027</t>
-  </si>
-  <si>
     <t>Emirates Park Zoo</t>
   </si>
   <si>
     <t>https://www.emiratesparkzooandresort.com/</t>
   </si>
   <si>
-    <t>United Arab EmiratesAccredited through September 2028</t>
+    <t>United Arab Emirates</t>
   </si>
   <si>
     <t>United</t>
@@ -775,7 +584,7 @@
     <t>https://www.everland.com/web/everland/favorite/zootopia/index.html</t>
   </si>
   <si>
-    <t>South KoreaAccredited through September 2025</t>
+    <t>South Korea</t>
   </si>
   <si>
     <t>South</t>
@@ -793,9 +602,6 @@
     <t>https://kidszoo.org/</t>
   </si>
   <si>
-    <t>Ind. Accredited through September 2024</t>
-  </si>
-  <si>
     <t>Ind.</t>
   </si>
   <si>
@@ -805,27 +611,18 @@
     <t>https://www.fortworthzoo.org/</t>
   </si>
   <si>
-    <t>Texas Accredited through March 2029</t>
-  </si>
-  <si>
     <t>Fossil Rim Wildlife Center</t>
   </si>
   <si>
     <t>https://fossilrim.org/</t>
   </si>
   <si>
-    <t>Texas Accredited through March 2025</t>
-  </si>
-  <si>
     <t>Franklin Park Zoo</t>
   </si>
   <si>
     <t>https://www.zoonewengland.org/franklin-park-zoo/</t>
   </si>
   <si>
-    <t>Mass. Accredited through September 2025</t>
-  </si>
-  <si>
     <t>Fresno Chaffee Zoo</t>
   </si>
   <si>
@@ -838,15 +635,9 @@
     <t>https://www.temaiken.org.ar/bioparque</t>
   </si>
   <si>
-    <t>Argentina  Accredited through March 2028</t>
-  </si>
-  <si>
     <t>Argentina</t>
   </si>
   <si>
-    <t>Ga.Accredited through March 2029</t>
-  </si>
-  <si>
     <t>Ga.</t>
   </si>
   <si>
@@ -862,18 +653,12 @@
     <t>https://greatzoo.org/</t>
   </si>
   <si>
-    <t>S.D. Accredited through September 2027</t>
-  </si>
-  <si>
     <t>Greensboro Science Center</t>
   </si>
   <si>
     <t>https://www.greensboroscience.org/</t>
   </si>
   <si>
-    <t>N.C. Accredited through September 2024(also accredited by the American Alliance of Museums)</t>
-  </si>
-  <si>
     <t>N.C.</t>
   </si>
   <si>
@@ -883,18 +668,12 @@
     <t>https://www.greenvillezoo.com/</t>
   </si>
   <si>
-    <t>S.C. Accredited through September 2024</t>
-  </si>
-  <si>
     <t>Grizzly &amp; Wolf Discovery Center</t>
   </si>
   <si>
     <t>https://www.grizzlydiscoveryctr.org/</t>
   </si>
   <si>
-    <t>Mont. Accredited through September 2027</t>
-  </si>
-  <si>
     <t>Mont.</t>
   </si>
   <si>
@@ -904,9 +683,6 @@
     <t>https://www.henryvilaszoo.gov/</t>
   </si>
   <si>
-    <t>Wis.Accredited through September 2024</t>
-  </si>
-  <si>
     <t>Wis.</t>
   </si>
   <si>
@@ -916,9 +692,6 @@
     <t>https://www.honoluluzoo.org/</t>
   </si>
   <si>
-    <t>HawaiiAccredited through March 2025</t>
-  </si>
-  <si>
     <t>Hawaii</t>
   </si>
   <si>
@@ -928,7 +701,7 @@
     <t>https://www.houstonzoo.org/</t>
   </si>
   <si>
-    <t>Inc. Texas Accredited through March 2029</t>
+    <t>Inc. Texas</t>
   </si>
   <si>
     <t>Inc.</t>
@@ -940,18 +713,12 @@
     <t>http://www.hutchinsonzoo.org/</t>
   </si>
   <si>
-    <t>Kan. Accredited through September 2024</t>
-  </si>
-  <si>
     <t>Idaho Falls Zoo at Tautphaus Park</t>
   </si>
   <si>
     <t>https://www.idahofallsidaho.gov/1736/Zoo</t>
   </si>
   <si>
-    <t>Idaho Accredited through September 2025</t>
-  </si>
-  <si>
     <t>Idaho</t>
   </si>
   <si>
@@ -982,48 +749,30 @@
     <t>https://jenkinsons.com/aquarium/</t>
   </si>
   <si>
-    <t>N.J. Accredited through March 2029</t>
-  </si>
-  <si>
     <t>John Ball Zoo</t>
   </si>
   <si>
     <t>https://jbzoo.org/</t>
   </si>
   <si>
-    <t>Mich. Accredited through September 2026</t>
-  </si>
-  <si>
     <t>John G. Shedd Aquarium</t>
   </si>
   <si>
     <t>https://www.sheddaquarium.org/</t>
   </si>
   <si>
-    <t>Ill.Accredited through March 2029</t>
-  </si>
-  <si>
     <t>Kansas City Zoo &amp; Aquarium</t>
   </si>
   <si>
     <t>https://kansascityzoo.org/</t>
   </si>
   <si>
-    <t>Mo.  Accredited through September 2026</t>
-  </si>
-  <si>
-    <t>Minn.Accredited through September 2027</t>
-  </si>
-  <si>
     <t>Landry's Downtown Aquarium - Denver</t>
   </si>
   <si>
     <t>https://www.aquariumrestaurants.com/downtownaquariumdenver/default.asp</t>
   </si>
   <si>
-    <t>Colo.  Accredited through March 2026</t>
-  </si>
-  <si>
     <t>Landry's Houston Aquarium, Inc.</t>
   </si>
   <si>
@@ -1036,9 +785,6 @@
     <t>http://www.wildlifesafaripark.com/</t>
   </si>
   <si>
-    <t>Nebraska Accredited through September 2026</t>
-  </si>
-  <si>
     <t>Nebraska</t>
   </si>
   <si>
@@ -1048,9 +794,6 @@
     <t>https://www.leerichardsonzoo.org/</t>
   </si>
   <si>
-    <t>Kansas Accredited through September 2027</t>
-  </si>
-  <si>
     <t>Kansas</t>
   </si>
   <si>
@@ -1060,9 +803,6 @@
     <t>https://www.lvzoo.org/</t>
   </si>
   <si>
-    <t>Penn. Accredited through September 2026</t>
-  </si>
-  <si>
     <t>Penn.</t>
   </si>
   <si>
@@ -1072,36 +812,24 @@
     <t>https://www.lincolnzoo.org/</t>
   </si>
   <si>
-    <t>Nebraska Accredited through September 2027</t>
-  </si>
-  <si>
     <t>Lincoln Park Zoological Gardens</t>
   </si>
   <si>
     <t>https://www.lpzoo.org/</t>
   </si>
   <si>
-    <t>Ill.  Accredited through September 2028</t>
-  </si>
-  <si>
     <t>Lion Country Safari</t>
   </si>
   <si>
     <t>https://www.lioncountrysafari.com/</t>
   </si>
   <si>
-    <t>Fla. Accredited through March 2027</t>
-  </si>
-  <si>
     <t>Little Rock Zoological Gardens</t>
   </si>
   <si>
     <t>https://www.littlerockzoo.com/</t>
   </si>
   <si>
-    <t>Arkansas  Accredited through September 2027</t>
-  </si>
-  <si>
     <t>Arkansas</t>
   </si>
   <si>
@@ -1123,9 +851,6 @@
     <t>https://louisvillezoo.org/</t>
   </si>
   <si>
-    <t>Ky. Accredited through March 2029(also accredited by the American Alliance of Museums)</t>
-  </si>
-  <si>
     <t>Ky.</t>
   </si>
   <si>
@@ -1138,9 +863,6 @@
     <t>https://livingplanetaquarium.org/</t>
   </si>
   <si>
-    <t>UtahAccredited through March 2025</t>
-  </si>
-  <si>
     <t>Utah</t>
   </si>
   <si>
@@ -1150,9 +872,6 @@
     <t>https://marineland.net/</t>
   </si>
   <si>
-    <t>Fla.Accredited through March 2027</t>
-  </si>
-  <si>
     <t>The Maritime Aquarium at Norwalk, Inc.</t>
   </si>
   <si>
@@ -1165,9 +884,6 @@
     <t>https://www.marylandzoo.org/</t>
   </si>
   <si>
-    <t>Md.Accredited through September 2024</t>
-  </si>
-  <si>
     <t>Md.</t>
   </si>
   <si>
@@ -1177,9 +893,6 @@
     <t>https://www.memphiszoo.org/</t>
   </si>
   <si>
-    <t>Tenn. Accredited through March 2025</t>
-  </si>
-  <si>
     <t>Mesker Park Zoo &amp; Botanic Garden, Inc.</t>
   </si>
   <si>
@@ -1198,72 +911,48 @@
     <t>https://milwaukeezoo.org/#</t>
   </si>
   <si>
-    <t>Wis. Accredited through September 2024</t>
-  </si>
-  <si>
     <t>Minnesota Zoological Garden</t>
   </si>
   <si>
     <t>https://mnzoo.org/</t>
   </si>
   <si>
-    <t>Minn. Accredited through September 2028</t>
-  </si>
-  <si>
     <t>Monterey Bay Aquarium</t>
   </si>
   <si>
     <t>https://www.montereybayaquarium.org/</t>
   </si>
   <si>
-    <t>Calif. Accredited through March 2028</t>
-  </si>
-  <si>
     <t>Montréal Biodôme</t>
   </si>
   <si>
     <t>https://espacepourlavie.ca/biodome</t>
   </si>
   <si>
-    <t>CanadaAccredited through September 2026</t>
-  </si>
-  <si>
     <t>Moody Gardens Rainforest and Aquarium</t>
   </si>
   <si>
     <t>https://www.moodygardens.com/attractions/rainforest_pyramid/</t>
   </si>
   <si>
-    <t>Texas Accredited through March 2029</t>
-  </si>
-  <si>
     <t>Mote Marine Laboratory and Aquarium</t>
   </si>
   <si>
     <t>https://mote.org/</t>
   </si>
   <si>
-    <t>Fla. Accredited through September 2025</t>
-  </si>
-  <si>
     <t>Museum of Life and Science</t>
   </si>
   <si>
     <t>https://www.lifeandscience.org/</t>
   </si>
   <si>
-    <t>N.C.Accredited through March 2027</t>
-  </si>
-  <si>
     <t>Museum of Science</t>
   </si>
   <si>
     <t>https://www.mos.org/</t>
   </si>
   <si>
-    <t>Mass. Accredited through March 2025(also accredited by the American Alliance of Museums)</t>
-  </si>
-  <si>
     <t>March 2025(also accredited by the American Alliance of Museums)</t>
   </si>
   <si>
@@ -1273,9 +962,6 @@
     <t>https://www.mysticaquarium.org/</t>
   </si>
   <si>
-    <t>Conn. Accredited through September 2026</t>
-  </si>
-  <si>
     <t>September 2026</t>
   </si>
   <si>
@@ -1291,18 +977,12 @@
     <t>https://aqua.org/</t>
   </si>
   <si>
-    <t>Md. Accredited through March 2028</t>
-  </si>
-  <si>
     <t>National Aviary</t>
   </si>
   <si>
     <t>https://www.aviary.org/</t>
   </si>
   <si>
-    <t>Pa. Accredited through September 2026</t>
-  </si>
-  <si>
     <t>National Mississippi River Museum &amp; Aquarium</t>
   </si>
   <si>
@@ -1318,18 +998,12 @@
     <t>https://www.neaq.org/</t>
   </si>
   <si>
-    <t>Mass. Accredited through March 2027(also accredited by the American Alliance of Museums)</t>
-  </si>
-  <si>
     <t>New York Aquarium</t>
   </si>
   <si>
     <t>https://nyaquarium.com/</t>
   </si>
   <si>
-    <t>N.Y. Accredited through September 2024</t>
-  </si>
-  <si>
     <t>September 2024</t>
   </si>
   <si>
@@ -1339,27 +1013,18 @@
     <t>https://www.newportaquarium.com/</t>
   </si>
   <si>
-    <t>Ky. Accredited through March 2025</t>
-  </si>
-  <si>
     <t>North Carolina Aquarium at Fort Fisher</t>
   </si>
   <si>
     <t>https://www.ncaquariums.com/fort-fisher?locale=en</t>
   </si>
   <si>
-    <t>N.C.Accredited through March 2028</t>
-  </si>
-  <si>
     <t>North Carolina Aquarium at Pine Knoll Shores</t>
   </si>
   <si>
     <t>https://www.ncaquariums.com/pine-knoll-shores?locale=en</t>
   </si>
   <si>
-    <t>N.C. Accredited through March 2028</t>
-  </si>
-  <si>
     <t>North Carolina Aquarium on Roanoke Island</t>
   </si>
   <si>
@@ -1372,27 +1037,18 @@
     <t>https://www.nczoo.org/</t>
   </si>
   <si>
-    <t>N.C. Accredited through September 2026</t>
-  </si>
-  <si>
     <t>Northeastern Wisconsin (NEW) Zoo</t>
   </si>
   <si>
     <t>https://newzoo.org/</t>
   </si>
   <si>
-    <t>Wis. Accredited through September 2028</t>
-  </si>
-  <si>
     <t>Northwest Trek Wildlife Park</t>
   </si>
   <si>
     <t>https://www.nwtrek.org/</t>
   </si>
   <si>
-    <t>Wash. Accredited through September 2027</t>
-  </si>
-  <si>
     <t>Wash.</t>
   </si>
   <si>
@@ -1402,9 +1058,6 @@
     <t>https://www.oceanografic.org/en/</t>
   </si>
   <si>
-    <t>SpainAccredited through March 2025</t>
-  </si>
-  <si>
     <t>Spain</t>
   </si>
   <si>
@@ -1414,7 +1067,7 @@
     <t>https://www.oceanpark.com.hk/en</t>
   </si>
   <si>
-    <t>Hong KongAccredited through March 2029</t>
+    <t>Hong Kong</t>
   </si>
   <si>
     <t>Hong</t>
@@ -1426,18 +1079,12 @@
     <t>https://www.odyseaaquarium.com/</t>
   </si>
   <si>
-    <t>Ariz.Accredited through March 2029</t>
-  </si>
-  <si>
     <t>Oglebay's Good Zoo</t>
   </si>
   <si>
     <t>https://oglebay.com/good-zoo/</t>
   </si>
   <si>
-    <t>W.Va. Accredited through September 2024</t>
-  </si>
-  <si>
     <t>W.Va.</t>
   </si>
   <si>
@@ -1447,9 +1094,6 @@
     <t>https://www.okczoo.org/</t>
   </si>
   <si>
-    <t>Okla.Accredited through September 2024(also accredited by the American Alliance of Museums)</t>
-  </si>
-  <si>
     <t>Okla.</t>
   </si>
   <si>
@@ -1459,9 +1103,6 @@
     <t>https://www.omahazoo.com/</t>
   </si>
   <si>
-    <t>Neb. Accredited through September 2024</t>
-  </si>
-  <si>
     <t>Neb.</t>
   </si>
   <si>
@@ -1471,9 +1112,6 @@
     <t>https://aquarium.org/</t>
   </si>
   <si>
-    <t>Ore. Accredited through March 2027</t>
-  </si>
-  <si>
     <t>Ore.</t>
   </si>
   <si>
@@ -1483,9 +1121,6 @@
     <t>https://www.oregonzoo.org/</t>
   </si>
   <si>
-    <t>Ore. Accredited through September 2026</t>
-  </si>
-  <si>
     <t>Peoria Zoo</t>
   </si>
   <si>
@@ -1498,7 +1133,10 @@
     <t>https://www.philadelphiazoo.org/</t>
   </si>
   <si>
-    <t>Pa. Accredited through September 2025</t>
+    <t>Phoenix Zoo, The</t>
+  </si>
+  <si>
+    <t>https://www.phoenixzoo.org/</t>
   </si>
   <si>
     <t>Point Defiance Zoo and Aquarium</t>
@@ -1507,27 +1145,18 @@
     <t>https://www.pdza.org/</t>
   </si>
   <si>
-    <t>Wash. Accredited through September 2028</t>
-  </si>
-  <si>
     <t>Potawatomi Zoo</t>
   </si>
   <si>
     <t>https://www.potawatomizoo.org/</t>
   </si>
   <si>
-    <t>Ind. Accredited through September 2025</t>
-  </si>
-  <si>
     <t>Potter Park Zoological Gardens</t>
   </si>
   <si>
     <t>https://potterparkzoo.org/</t>
   </si>
   <si>
-    <t>Mich.Accredited through September 2028</t>
-  </si>
-  <si>
     <t>Prospect Park Zoo</t>
   </si>
   <si>
@@ -1540,81 +1169,54 @@
     <t>https://www.pueblozoo.org/</t>
   </si>
   <si>
-    <t>Colo. Accredited through September 2024</t>
-  </si>
-  <si>
     <t>Racine Zoo</t>
   </si>
   <si>
     <t>https://racinezoo.org/</t>
   </si>
   <si>
-    <t>Wis.  Accredited through September 2028</t>
-  </si>
-  <si>
     <t>Red River Zoo</t>
   </si>
   <si>
     <t>https://www.redriverzoo.org/</t>
   </si>
   <si>
-    <t>N.D. Accredited through September 2027</t>
-  </si>
-  <si>
     <t>Reid Park Zoo</t>
   </si>
   <si>
     <t>https://reidparkzoo.org/</t>
   </si>
   <si>
-    <t>Ariz.Accredited through March 2025</t>
-  </si>
-  <si>
     <t>Ripley's Aquarium of Myrtle Beach</t>
   </si>
   <si>
     <t>https://www.ripleyaquariums.com/myrtlebeach/</t>
   </si>
   <si>
-    <t>S.C.Accredited through March 2027</t>
-  </si>
-  <si>
     <t>Ripley's Aquarium of Canada</t>
   </si>
   <si>
     <t>https://www.ripleyaquariums.com/canada/</t>
   </si>
   <si>
-    <t>Canada Accredited through September 2026</t>
-  </si>
-  <si>
     <t>Ripley's Aquarium of the Smokies</t>
   </si>
   <si>
     <t>https://www.ripleyaquariums.com/gatlinburg/</t>
   </si>
   <si>
-    <t>Tenn. Accredited through March 2029</t>
-  </si>
-  <si>
     <t>Riverbanks Zoo and Garden</t>
   </si>
   <si>
     <t>https://www.riverbanks.org/</t>
   </si>
   <si>
-    <t>S.C. Accredited through September 2026</t>
-  </si>
-  <si>
     <t>Roger Williams Park Zoo</t>
   </si>
   <si>
     <t>https://www.rwpzoo.org/</t>
   </si>
   <si>
-    <t>R.I. Accredited through September 2027</t>
-  </si>
-  <si>
     <t>R.I.</t>
   </si>
   <si>
@@ -1624,72 +1226,48 @@
     <t>https://www.rollinghillszoo.org/</t>
   </si>
   <si>
-    <t>Kan. Accredited through September 2026</t>
-  </si>
-  <si>
     <t>Roosevelt Park Zoo</t>
   </si>
   <si>
     <t>https://rpzoo.com/</t>
   </si>
   <si>
-    <t>N.D.Accredited through September 2025</t>
-  </si>
-  <si>
     <t>Rosamond Gifford Zoo at Burnet Park</t>
   </si>
   <si>
     <t>https://www.rosamondgiffordzoo.org/</t>
   </si>
   <si>
-    <t>N.Y.Accredited through September 2024</t>
-  </si>
-  <si>
     <t>Sacramento Zoo</t>
   </si>
   <si>
     <t>https://www.saczoo.org/</t>
   </si>
   <si>
-    <t>Calif.  Accredited through March 2029</t>
-  </si>
-  <si>
     <t>Saginaw Children's Zoo</t>
   </si>
   <si>
     <t>https://www.saginawzoo.com/</t>
   </si>
   <si>
-    <t>Mich.Accredited through September 2025</t>
-  </si>
-  <si>
     <t>Saint Louis Zoo</t>
   </si>
   <si>
     <t>https://stlzoo.org/</t>
   </si>
   <si>
-    <t>Mo. Accredited through September 2025</t>
-  </si>
-  <si>
     <t>San Antonio Zoological Society</t>
   </si>
   <si>
     <t>https://sazoo.org/</t>
   </si>
   <si>
-    <t>Texas Accredited through March 2025</t>
-  </si>
-  <si>
     <t>San Diego Zoo</t>
   </si>
   <si>
     <t>https://sandiegozoowildlifealliance.org/</t>
   </si>
   <si>
-    <t>Calif. Accredited through March 2026(also accredited by the American Alliance of Museums)</t>
-  </si>
-  <si>
     <t>March 2026(also accredited by the American Alliance of Museums)</t>
   </si>
   <si>
@@ -1699,18 +1277,12 @@
     <t>https://sdzsafaripark.org/tickets</t>
   </si>
   <si>
-    <t>Calif. Accredited through March 2026(also accredited by the American Alliance of Museums)</t>
-  </si>
-  <si>
     <t>San Francisco Zoological Gardens</t>
   </si>
   <si>
     <t>https://www.sfzoo.org/</t>
   </si>
   <si>
-    <t>Calif. Accredited through March 2027</t>
-  </si>
-  <si>
     <t>Santa Barbara Zoo</t>
   </si>
   <si>
@@ -1723,54 +1295,36 @@
     <t>https://www.sfcollege.edu/zoo/</t>
   </si>
   <si>
-    <t>Fla. Accredited through September 2026</t>
-  </si>
-  <si>
     <t>Scovill Zoo</t>
   </si>
   <si>
     <t>https://www.decatur-parks.org/scovill-zoo/</t>
   </si>
   <si>
-    <t>Ill. Accredited through September 2027</t>
-  </si>
-  <si>
     <t>SEA LIFE Arizona Aquarium</t>
   </si>
   <si>
     <t>https://www.visitsealife.com/arizona/</t>
   </si>
   <si>
-    <t>Ariz. Accredited through March 2027</t>
-  </si>
-  <si>
     <t>SEA LIFE Charlotte-Concord Aquarium</t>
   </si>
   <si>
     <t>https://www.visitsealife.com/charlotte-concord/</t>
   </si>
   <si>
-    <t>N.C.Accredited through September 2026</t>
-  </si>
-  <si>
     <t>SEA LIFE Kansas City Aquarium</t>
   </si>
   <si>
     <t>https://www.visitsealife.com/kansas-city/</t>
   </si>
   <si>
-    <t>Mo.Accredited through March 2025</t>
-  </si>
-  <si>
     <t>Seattle Aquarium</t>
   </si>
   <si>
     <t>https://www.seattleaquarium.org/</t>
   </si>
   <si>
-    <t>Wash. Accredited through March 2029</t>
-  </si>
-  <si>
     <t>SeaWorld Orlando</t>
   </si>
   <si>
@@ -1783,9 +1337,6 @@
     <t>https://seaworld.com/san-antonio/</t>
   </si>
   <si>
-    <t>TexasAccredited through March 2028</t>
-  </si>
-  <si>
     <t>SeaWorld San Diego</t>
   </si>
   <si>
@@ -1798,36 +1349,24 @@
     <t>https://scz.org/</t>
   </si>
   <si>
-    <t>Kan. Accredited through September 2025</t>
-  </si>
-  <si>
     <t>Seneca Park Zoo</t>
   </si>
   <si>
     <t>https://senecaparkzoo.org/</t>
   </si>
   <si>
-    <t>N.Y. Accredited through September 2024</t>
-  </si>
-  <si>
     <t>Sequoia Park Zoo</t>
   </si>
   <si>
     <t>https://sequoiaparkzoo.net/</t>
   </si>
   <si>
-    <t>Calif. Accredited through September 2026</t>
-  </si>
-  <si>
     <t>Shark Reef Aquarium at Mandalay Bay</t>
   </si>
   <si>
     <t>https://mandalaybay.mgmresorts.com/en/entertainment/shark-reef-aquarium.html</t>
   </si>
   <si>
-    <t>Nev. Accredited through March 2028</t>
-  </si>
-  <si>
     <t>Nev.</t>
   </si>
   <si>
@@ -1837,9 +1376,6 @@
     <t>https://nationalzoo.si.edu/</t>
   </si>
   <si>
-    <t>D.C. Accredited through September 2024</t>
-  </si>
-  <si>
     <t>D.C.</t>
   </si>
   <si>
@@ -1849,18 +1385,12 @@
     <t>https://scaquarium.org/</t>
   </si>
   <si>
-    <t>S.C. Accredited through March 2028</t>
-  </si>
-  <si>
     <t>St. Augustine Alligator Farm</t>
   </si>
   <si>
     <t>https://alligatorfarm.com/</t>
   </si>
   <si>
-    <t>Fla. Accredited through March 2026</t>
-  </si>
-  <si>
     <t>Staten Island Zoo</t>
   </si>
   <si>
@@ -1873,9 +1403,6 @@
     <t>https://www.calacademy.org/exhibits/steinhart-aquarium</t>
   </si>
   <si>
-    <t>Calif.Accredited through March 2026</t>
-  </si>
-  <si>
     <t>Sunset Zoological Park</t>
   </si>
   <si>
@@ -1900,63 +1427,42 @@
     <t>https://www.toledozoo.org/</t>
   </si>
   <si>
-    <t>Ohio Accredited through September 2028</t>
-  </si>
-  <si>
     <t>Topeka Zoo and Conservation Center</t>
   </si>
   <si>
     <t>https://topekazoo.org/</t>
   </si>
   <si>
-    <t>Kan. Accredited through September 2028</t>
-  </si>
-  <si>
     <t>Toronto Zoo</t>
   </si>
   <si>
     <t>https://www.torontozoo.com/</t>
   </si>
   <si>
-    <t>Canada Accredited through March 2027</t>
-  </si>
-  <si>
     <t>Tracy Aviary</t>
   </si>
   <si>
     <t>https://tracyaviary.org/</t>
   </si>
   <si>
-    <t>UtahAccredited through September 2025</t>
-  </si>
-  <si>
     <t>Trevor Zoo</t>
   </si>
   <si>
     <t>https://www.millbrook.org/trevor-zoo-home</t>
   </si>
   <si>
-    <t>N.Y. Accredited through September 2027</t>
-  </si>
-  <si>
     <t>Tulsa Zoo</t>
   </si>
   <si>
     <t>https://tulsazoo.org/</t>
   </si>
   <si>
-    <t>Okla. Accredited through September 2028</t>
-  </si>
-  <si>
     <t>Turtle Back Zoo</t>
   </si>
   <si>
     <t>https://turtlebackzoo.com/</t>
   </si>
   <si>
-    <t>N.J. Accredited through September 2027</t>
-  </si>
-  <si>
     <t>Utica Zoo</t>
   </si>
   <si>
@@ -1969,18 +1475,12 @@
     <t>https://www.vanaqua.org/</t>
   </si>
   <si>
-    <t>Canada  Accredited through September 2024</t>
-  </si>
-  <si>
     <t>Virginia Aquarium and Marine Science Center</t>
   </si>
   <si>
     <t>https://www.virginiaaquarium.com/</t>
   </si>
   <si>
-    <t>Va. Accredited through March 2028</t>
-  </si>
-  <si>
     <t>Va.</t>
   </si>
   <si>
@@ -1999,36 +1499,24 @@
     <t>https://virginiazoo.org/</t>
   </si>
   <si>
-    <t>Va. Accredited through September 2024</t>
-  </si>
-  <si>
     <t>Walter D. Stone Memorial Zoo</t>
   </si>
   <si>
     <t>https://www.zoonewengland.org/stone-zoo/</t>
   </si>
   <si>
-    <t>Mass.Accredited through September 2025</t>
-  </si>
-  <si>
     <t>Western North Carolina Nature Center</t>
   </si>
   <si>
     <t>https://wildwnc.org/</t>
   </si>
   <si>
-    <t>N.C.  Accredited through September 2026</t>
-  </si>
-  <si>
     <t>Wilder Institute/Calgary Zoo</t>
   </si>
   <si>
     <t>https://www.calgaryzoo.com/node</t>
   </si>
   <si>
-    <t>Canada Accredited through September 2024</t>
-  </si>
-  <si>
     <t>Wilds, The</t>
   </si>
   <si>
@@ -2041,27 +1529,18 @@
     <t>https://wondersofwildlife.org/</t>
   </si>
   <si>
-    <t>Mo.Accredited through March 2028</t>
-  </si>
-  <si>
     <t>Woodland Park Zoo</t>
   </si>
   <si>
     <t>https://www.zoo.org/</t>
   </si>
   <si>
-    <t>Wash. Accredited through September 2025</t>
-  </si>
-  <si>
     <t>Zoo Atlanta</t>
   </si>
   <si>
     <t>https://zooatlanta.org/</t>
   </si>
   <si>
-    <t>Ga.Accredited through March 2026</t>
-  </si>
-  <si>
     <t>March 2026</t>
   </si>
   <si>
@@ -2071,18 +1550,12 @@
     <t>https://zooboise.org/</t>
   </si>
   <si>
-    <t>Idaho Accredited through September 2028</t>
-  </si>
-  <si>
     <t>Zoo de Granby</t>
   </si>
   <si>
     <t>https://www.zoodegranby.com/en</t>
   </si>
   <si>
-    <t>Canada Accredited through September 2025</t>
-  </si>
-  <si>
     <t>September 2025</t>
   </si>
   <si>
@@ -2092,9 +1565,6 @@
     <t>https://zooknoxville.org/</t>
   </si>
   <si>
-    <t>Tenn. Accredited through March 2026</t>
-  </si>
-  <si>
     <t>Zoo Miami</t>
   </si>
   <si>
@@ -2107,18 +1577,12 @@
     <t>https://www.zooamerica.com/</t>
   </si>
   <si>
-    <t>Pa.Accredited through September 2026</t>
-  </si>
-  <si>
     <t>Zoológico de Cali</t>
   </si>
   <si>
     <t>https://www.zoologicodecali.com.co/</t>
   </si>
   <si>
-    <t>Colombia Accredited through March 2027</t>
-  </si>
-  <si>
     <t>Colombia</t>
   </si>
   <si>
@@ -2128,9 +1592,6 @@
     <t>https://www.zoomontana.org/</t>
   </si>
   <si>
-    <t>Mont.Accredited through September 2025</t>
-  </si>
-  <si>
     <t>ZooTampa at Lowry Park</t>
   </si>
   <si>
@@ -2143,9 +1604,6 @@
     <t>https://www.apeinitiative.org/</t>
   </si>
   <si>
-    <t>Iowa Accredited through September 2024</t>
-  </si>
-  <si>
     <t>B. Bryan Preserve</t>
   </si>
   <si>
@@ -2170,18 +1628,12 @@
     <t>https://www.elephants.com/</t>
   </si>
   <si>
-    <t>Tenn.Accredited through September 2028</t>
-  </si>
-  <si>
     <t>Endangered Wolf Center</t>
   </si>
   <si>
     <t>https://www.endangeredwolfcenter.org/</t>
   </si>
   <si>
-    <t>Mo.Accredited through September 2027</t>
-  </si>
-  <si>
     <t>Lemur Conservation Foundation</t>
   </si>
   <si>
@@ -2216,9 +1668,6 @@
   </si>
   <si>
     <t>https://turtlesurvival.org/</t>
-  </si>
-  <si>
-    <t>S.C. Accredited through March 2025</t>
   </si>
   <si>
     <t>White Oak Conservation Center</t>
@@ -2230,12 +1679,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="mmmm\ yyyy"/>
-    <numFmt numFmtId="165" formatCode="mmmm\,\ yyyy"/>
+    <numFmt numFmtId="177" formatCode="mmmm yyyy"/>
+    <numFmt numFmtId="178" formatCode="mmmm, yyyy"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -2279,22 +1728,115 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="15" builtinId="5"/>
+    <cellStyle name="Currency" xfId="16" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="17" builtinId="7"/>
+    <cellStyle name="Comma" xfId="18" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="19" builtinId="6"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2602,23 +2144,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{881CB9ED-D61D-410C-8D15-D5D777572016}">
-  <dimension ref="A1:E237"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{c2b1e28d-a883-46cb-86de-f486cce1f4a8}">
+  <dimension ref="A1:E249"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C213" sqref="C213"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="52.88671875" customWidth="1"/>
+    <col min="1" max="1" width="52.8571428571429" customWidth="1"/>
     <col min="2" max="2" width="76" customWidth="1"/>
-    <col min="3" max="3" width="81.109375" customWidth="1"/>
+    <col min="3" max="3" width="77.5714285714286" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="60.5546875" customWidth="1"/>
+    <col min="5" max="5" width="60.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="12.75">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2635,7 +2175,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="12.75">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2646,3989 +2186,4124 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" s="1">
         <v>45717</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="4" customFormat="1" ht="12.75">
       <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="D3" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E3" s="5">
         <v>46447</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="12.75">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E4" s="1">
         <v>46266</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" s="4" customFormat="1" ht="12.75">
       <c r="A5" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E5" s="5">
         <v>46631</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="12.75">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E6" s="1">
         <v>46266</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" s="4" customFormat="1" ht="12.75">
       <c r="A7" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E7" s="5">
         <v>45717</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="12.75">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E8" s="1">
         <v>46813</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" s="4" customFormat="1" ht="12.75">
       <c r="A9" s="4" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E9" s="5">
         <v>46082</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="12.75">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2">
         <v>45717</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" s="4" customFormat="1" ht="12.75">
       <c r="A11" s="4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E11" s="5">
         <v>46082</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="12.75">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E12" s="1">
         <v>45901</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" s="4" customFormat="1" ht="12.75">
       <c r="A13" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="E13" s="5">
         <v>46082</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="12.75">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E14" s="1">
         <v>46813</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" s="4" customFormat="1" ht="12.75">
       <c r="A15" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="E15" s="5">
         <v>45717</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="12.75">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="E16" s="1">
         <v>47178</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" s="4" customFormat="1" ht="12.75">
       <c r="A17" s="4" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="12.75">
       <c r="A18" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="C18" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="D18" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="E18" s="1">
         <v>46266</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" s="4" customFormat="1" ht="12.75">
       <c r="A19" s="4" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="E19" s="5">
         <v>45717</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="12.75">
       <c r="A20" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="B20" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="D20" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="E20" s="1">
         <v>45901</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" s="4" customFormat="1" ht="12.75">
       <c r="A21" s="4" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E21" s="5">
         <v>47178</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="12.75">
       <c r="A22" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="C22" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="D22" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="E22" s="1">
         <v>46813</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" s="4" customFormat="1" ht="12.75">
       <c r="A23" s="4" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="E23" s="5">
         <v>45536</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="12.75">
       <c r="A24" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="B24" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="C24" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D24" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E24" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="4" customFormat="1" ht="12.75">
       <c r="A25" s="4" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="E25" s="5">
         <v>45536</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="12.75">
       <c r="A26" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="B26" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C26" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="D26" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="E26" s="1">
         <v>46631</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" s="4" customFormat="1" ht="12.75">
       <c r="A27" s="4" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="E27" s="5">
         <v>47178</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="12.75">
       <c r="A28" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="B28" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="C28" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
       <c r="D28" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="E28" s="1">
         <v>47178</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" s="4" customFormat="1" ht="12.75">
       <c r="A29" s="4" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>109</v>
+        <v>22</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E29" s="5">
         <v>45536</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="12.75">
       <c r="A30" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="B30" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="C30" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="D30" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="E30" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="4" customFormat="1" ht="12.75">
       <c r="A31" s="4" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>117</v>
+        <v>22</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E31" s="5">
         <v>46631</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="12.75">
       <c r="A32" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="B32" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="C32" t="s">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="D32" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="E32" s="1">
         <v>46447</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" s="4" customFormat="1" ht="12.75">
       <c r="A33" s="4" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="E33" s="5">
         <v>45717</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="12.75">
       <c r="A34" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="B34" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="C34" t="s">
-        <v>127</v>
+        <v>98</v>
       </c>
       <c r="D34" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="E34" s="1">
         <v>46082</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" s="4" customFormat="1" ht="12.75">
       <c r="A35" s="4" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="E35" s="5">
         <v>45536</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="12.75">
       <c r="A36" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="B36" t="s">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="C36" t="s">
-        <v>135</v>
+        <v>25</v>
       </c>
       <c r="D36" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E36" s="1">
         <v>46447</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" s="4" customFormat="1" ht="12.75">
       <c r="A37" s="4" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>138</v>
+        <v>54</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="E37" s="5">
         <v>46082</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="12.75">
       <c r="A38" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="B38" t="s">
-        <v>140</v>
+        <v>107</v>
       </c>
       <c r="C38" t="s">
-        <v>141</v>
+        <v>25</v>
       </c>
       <c r="D38" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E38" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="4" customFormat="1" ht="12.75">
       <c r="A39" s="4" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>144</v>
+        <v>54</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="E39" s="5">
         <v>46447</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="12.75">
       <c r="A40" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="B40" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="C40" t="s">
-        <v>147</v>
+        <v>7</v>
       </c>
       <c r="D40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E40" s="1">
         <v>46997</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" s="4" customFormat="1" ht="12.75">
       <c r="A41" s="4" t="s">
-        <v>148</v>
+        <v>112</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>149</v>
+        <v>113</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>150</v>
+        <v>101</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="E41" s="5">
         <v>46631</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="12.75">
       <c r="A42" t="s">
-        <v>151</v>
+        <v>114</v>
       </c>
       <c r="B42" t="s">
-        <v>152</v>
+        <v>115</v>
       </c>
       <c r="C42" t="s">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="D42" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="E42" s="1">
         <v>46447</v>
       </c>
     </row>
-    <row r="43" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" s="4" customFormat="1" ht="12.75">
       <c r="A43" s="4" t="s">
-        <v>153</v>
+        <v>116</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>155</v>
+        <v>22</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E43" s="5">
         <v>45901</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="12.75">
       <c r="A44" t="s">
-        <v>156</v>
+        <v>118</v>
       </c>
       <c r="B44" t="s">
-        <v>157</v>
+        <v>119</v>
       </c>
       <c r="C44" t="s">
-        <v>158</v>
+        <v>25</v>
       </c>
       <c r="D44" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E44" s="1">
         <v>45717</v>
       </c>
     </row>
-    <row r="45" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" s="4" customFormat="1" ht="12.75">
       <c r="A45" s="4" t="s">
-        <v>159</v>
+        <v>120</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>160</v>
+        <v>121</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>162</v>
+        <v>122</v>
       </c>
       <c r="E45" s="5">
         <v>45536</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="12.75">
       <c r="A46" t="s">
-        <v>163</v>
+        <v>123</v>
       </c>
       <c r="B46" t="s">
-        <v>164</v>
+        <v>124</v>
       </c>
       <c r="C46" t="s">
-        <v>165</v>
+        <v>98</v>
       </c>
       <c r="D46" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="E46" s="1">
         <v>46266</v>
       </c>
     </row>
-    <row r="47" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" s="4" customFormat="1" ht="12.75">
       <c r="A47" s="4" t="s">
-        <v>166</v>
+        <v>125</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>168</v>
+        <v>127</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>169</v>
+        <v>127</v>
       </c>
       <c r="E47" s="5">
         <v>45536</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="12.75">
       <c r="A48" t="s">
-        <v>170</v>
+        <v>128</v>
       </c>
       <c r="B48" t="s">
-        <v>171</v>
+        <v>129</v>
       </c>
       <c r="C48" t="s">
-        <v>172</v>
+        <v>13</v>
       </c>
       <c r="D48" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E48" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" s="4" customFormat="1" ht="12.75">
       <c r="A49" s="4" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>175</v>
+        <v>132</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>176</v>
+        <v>13</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E49" s="5">
         <v>45901</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="12.75">
       <c r="A50" t="s">
-        <v>177</v>
+        <v>133</v>
       </c>
       <c r="B50" t="s">
-        <v>178</v>
+        <v>134</v>
       </c>
       <c r="C50" t="s">
-        <v>179</v>
+        <v>135</v>
       </c>
       <c r="D50" t="s">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="E50" s="1">
         <v>45536</v>
       </c>
     </row>
-    <row r="51" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" s="4" customFormat="1" ht="12.75">
       <c r="A51" s="4" t="s">
-        <v>181</v>
+        <v>136</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>182</v>
+        <v>137</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>183</v>
+        <v>13</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E51" s="5">
         <v>46997</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="12.75">
       <c r="A52" t="s">
-        <v>184</v>
+        <v>138</v>
       </c>
       <c r="B52" t="s">
-        <v>185</v>
+        <v>139</v>
       </c>
       <c r="C52" t="s">
-        <v>186</v>
+        <v>140</v>
       </c>
       <c r="D52" t="s">
-        <v>187</v>
+        <v>140</v>
       </c>
       <c r="E52" s="1">
         <v>46266</v>
       </c>
     </row>
-    <row r="53" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" s="4" customFormat="1" ht="12.75">
       <c r="A53" s="4" t="s">
-        <v>188</v>
+        <v>141</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>189</v>
+        <v>142</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>190</v>
+        <v>143</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>191</v>
+        <v>143</v>
       </c>
       <c r="E53" s="5">
         <v>45536</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="12.75">
       <c r="A54" t="s">
-        <v>192</v>
+        <v>144</v>
       </c>
       <c r="B54" t="s">
-        <v>193</v>
+        <v>145</v>
       </c>
       <c r="C54" t="s">
-        <v>194</v>
+        <v>127</v>
       </c>
       <c r="D54" t="s">
-        <v>169</v>
+        <v>127</v>
       </c>
       <c r="E54" s="1">
         <v>46266</v>
       </c>
     </row>
-    <row r="55" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" s="4" customFormat="1" ht="12.75">
       <c r="A55" s="4" t="s">
-        <v>195</v>
+        <v>146</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>196</v>
+        <v>147</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>197</v>
+        <v>25</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E55" s="5">
         <v>46447</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="12.75">
       <c r="A56" t="s">
-        <v>198</v>
+        <v>148</v>
       </c>
       <c r="B56" t="s">
-        <v>199</v>
+        <v>149</v>
       </c>
       <c r="C56" t="s">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D56" t="s">
-        <v>201</v>
+        <v>150</v>
       </c>
       <c r="E56" s="1">
         <v>46997</v>
       </c>
     </row>
-    <row r="57" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" s="4" customFormat="1" ht="12.75">
       <c r="A57" s="4" t="s">
-        <v>202</v>
+        <v>151</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>203</v>
+        <v>152</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>204</v>
+        <v>54</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="E57" s="5">
         <v>46813</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="12.75">
       <c r="A58" t="s">
-        <v>205</v>
+        <v>153</v>
       </c>
       <c r="B58" t="s">
-        <v>206</v>
+        <v>154</v>
       </c>
       <c r="C58" t="s">
-        <v>204</v>
+        <v>54</v>
       </c>
       <c r="D58" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="E58" s="1">
         <v>46813</v>
       </c>
     </row>
-    <row r="59" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" s="4" customFormat="1" ht="12.75">
       <c r="A59" s="4" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>210</v>
+        <v>157</v>
       </c>
       <c r="E59" s="5">
         <v>46631</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="12.75">
       <c r="A60" t="s">
-        <v>211</v>
+        <v>158</v>
       </c>
       <c r="B60" t="s">
-        <v>212</v>
+        <v>159</v>
       </c>
       <c r="C60" t="s">
-        <v>213</v>
+        <v>98</v>
       </c>
       <c r="D60" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="E60" s="1">
         <v>46997</v>
       </c>
     </row>
-    <row r="61" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" s="4" customFormat="1" ht="12.75">
       <c r="A61" s="4" t="s">
-        <v>214</v>
+        <v>160</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>215</v>
+        <v>161</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>216</v>
+        <v>61</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="E61" s="5">
         <v>46631</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="12.75">
       <c r="A62" t="s">
-        <v>217</v>
+        <v>162</v>
       </c>
       <c r="B62" t="s">
-        <v>218</v>
+        <v>163</v>
       </c>
       <c r="C62" t="s">
-        <v>219</v>
+        <v>95</v>
       </c>
       <c r="D62" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="E62" s="1">
         <v>46997</v>
       </c>
     </row>
-    <row r="63" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" s="4" customFormat="1" ht="12.75">
       <c r="A63" s="4" t="s">
-        <v>220</v>
+        <v>164</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>221</v>
+        <v>165</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>222</v>
+        <v>50</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="E63" s="5">
         <v>46082</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" ht="12.75">
       <c r="A64" t="s">
-        <v>223</v>
+        <v>166</v>
       </c>
       <c r="B64" t="s">
-        <v>224</v>
+        <v>167</v>
       </c>
       <c r="C64" t="s">
-        <v>225</v>
+        <v>50</v>
       </c>
       <c r="D64" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="E64" s="1">
         <v>46082</v>
       </c>
     </row>
-    <row r="65" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" s="4" customFormat="1" ht="12.75">
       <c r="A65" s="4" t="s">
-        <v>226</v>
+        <v>168</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>227</v>
+        <v>169</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>228</v>
+        <v>10</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E65" s="5">
         <v>47178</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" ht="12.75">
       <c r="A66" t="s">
-        <v>229</v>
+        <v>170</v>
       </c>
       <c r="B66" t="s">
-        <v>230</v>
+        <v>171</v>
       </c>
       <c r="C66" t="s">
-        <v>228</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E66" s="1">
         <v>47178</v>
       </c>
     </row>
-    <row r="67" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" s="4" customFormat="1" ht="12.75">
       <c r="A67" s="4" t="s">
-        <v>231</v>
+        <v>172</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>232</v>
+        <v>173</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>233</v>
+        <v>174</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>234</v>
+        <v>175</v>
       </c>
       <c r="E67" s="5">
         <v>45717</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" ht="12.75">
       <c r="A68" t="s">
-        <v>235</v>
+        <v>176</v>
       </c>
       <c r="B68" t="s">
-        <v>236</v>
+        <v>177</v>
       </c>
       <c r="C68" t="s">
-        <v>237</v>
+        <v>178</v>
       </c>
       <c r="D68" t="s">
-        <v>238</v>
+        <v>178</v>
       </c>
       <c r="E68" s="1">
         <v>46082</v>
       </c>
     </row>
-    <row r="69" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" s="4" customFormat="1" ht="12.75">
       <c r="A69" s="4" t="s">
-        <v>239</v>
+        <v>179</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>241</v>
+        <v>54</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="E69" s="5">
         <v>45717</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" ht="12.75">
       <c r="A70" t="s">
-        <v>242</v>
+        <v>181</v>
       </c>
       <c r="B70" t="s">
-        <v>243</v>
+        <v>182</v>
       </c>
       <c r="C70" t="s">
-        <v>244</v>
+        <v>135</v>
       </c>
       <c r="D70" t="s">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="E70" s="1">
         <v>46631</v>
       </c>
     </row>
-    <row r="71" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" s="4" customFormat="1" ht="12.75">
       <c r="A71" s="4" t="s">
-        <v>245</v>
+        <v>183</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>246</v>
+        <v>184</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>247</v>
+        <v>185</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>248</v>
+        <v>186</v>
       </c>
       <c r="E71" s="5">
         <v>46997</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" ht="12.75">
       <c r="A72" t="s">
-        <v>249</v>
+        <v>187</v>
       </c>
       <c r="B72" t="s">
-        <v>250</v>
+        <v>188</v>
       </c>
       <c r="C72" t="s">
-        <v>251</v>
+        <v>189</v>
       </c>
       <c r="D72" t="s">
-        <v>252</v>
+        <v>190</v>
       </c>
       <c r="E72" s="1">
         <v>45901</v>
       </c>
     </row>
-    <row r="73" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" s="4" customFormat="1" ht="12.75">
       <c r="A73" s="4" t="s">
-        <v>253</v>
+        <v>191</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>253</v>
+        <v>191</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>254</v>
+        <v>192</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>254</v>
+        <v>192</v>
       </c>
       <c r="E73" s="5">
         <v>45717</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" ht="12.75">
       <c r="A74" t="s">
-        <v>255</v>
+        <v>193</v>
       </c>
       <c r="B74" t="s">
-        <v>256</v>
+        <v>194</v>
       </c>
       <c r="C74" t="s">
-        <v>257</v>
+        <v>195</v>
       </c>
       <c r="D74" t="s">
-        <v>258</v>
+        <v>195</v>
       </c>
       <c r="E74" s="1">
         <v>45536</v>
       </c>
     </row>
-    <row r="75" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" s="4" customFormat="1" ht="12.75">
       <c r="A75" s="4" t="s">
-        <v>259</v>
+        <v>196</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>260</v>
+        <v>197</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>261</v>
+        <v>54</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="E75" s="5">
         <v>47178</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" ht="12.75">
       <c r="A76" t="s">
-        <v>262</v>
+        <v>198</v>
       </c>
       <c r="B76" t="s">
-        <v>263</v>
+        <v>199</v>
       </c>
       <c r="C76" t="s">
-        <v>264</v>
+        <v>54</v>
       </c>
       <c r="D76" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="E76" s="1">
         <v>45717</v>
       </c>
     </row>
-    <row r="77" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" s="4" customFormat="1" ht="12.75">
       <c r="A77" s="4" t="s">
-        <v>265</v>
+        <v>200</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>266</v>
+        <v>201</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>267</v>
+        <v>101</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="E77" s="5">
         <v>45901</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" ht="12.75">
       <c r="A78" t="s">
-        <v>268</v>
+        <v>202</v>
       </c>
       <c r="B78" t="s">
-        <v>269</v>
+        <v>203</v>
       </c>
       <c r="C78" t="s">
-        <v>135</v>
+        <v>25</v>
       </c>
       <c r="D78" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E78" s="1">
         <v>46447</v>
       </c>
     </row>
-    <row r="79" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" s="4" customFormat="1" ht="12.75">
       <c r="A79" s="4" t="s">
-        <v>270</v>
+        <v>204</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>271</v>
+        <v>205</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>272</v>
+        <v>206</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>273</v>
+        <v>206</v>
       </c>
       <c r="E79" s="5">
         <v>46813</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" ht="12.75">
       <c r="A80" t="s">
-        <v>253</v>
+        <v>191</v>
       </c>
       <c r="B80" t="s">
-        <v>253</v>
+        <v>191</v>
       </c>
       <c r="C80" t="s">
-        <v>274</v>
+        <v>207</v>
       </c>
       <c r="D80" t="s">
-        <v>275</v>
+        <v>207</v>
       </c>
       <c r="E80" s="1">
         <v>47178</v>
       </c>
     </row>
-    <row r="81" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" s="4" customFormat="1" ht="12.75">
       <c r="A81" s="4" t="s">
-        <v>276</v>
+        <v>208</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>277</v>
+        <v>209</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>261</v>
+        <v>54</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="E81" s="5">
         <v>47178</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" ht="12.75">
       <c r="A82" t="s">
-        <v>278</v>
+        <v>210</v>
       </c>
       <c r="B82" t="s">
-        <v>279</v>
+        <v>211</v>
       </c>
       <c r="C82" t="s">
-        <v>280</v>
+        <v>75</v>
       </c>
       <c r="D82" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="E82" s="1">
         <v>46631</v>
       </c>
     </row>
-    <row r="83" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" s="4" customFormat="1" ht="12.75">
       <c r="A83" s="4" t="s">
-        <v>281</v>
+        <v>212</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>282</v>
+        <v>213</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>283</v>
+        <v>214</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>284</v>
+        <v>214</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="12.75">
       <c r="A84" t="s">
-        <v>285</v>
+        <v>215</v>
       </c>
       <c r="B84" t="s">
-        <v>286</v>
+        <v>216</v>
       </c>
       <c r="C84" t="s">
-        <v>287</v>
+        <v>87</v>
       </c>
       <c r="D84" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="E84" s="1">
         <v>45536</v>
       </c>
     </row>
-    <row r="85" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" s="4" customFormat="1" ht="12.75">
       <c r="A85" s="4" t="s">
-        <v>288</v>
+        <v>217</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>289</v>
+        <v>218</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>290</v>
+        <v>219</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>291</v>
+        <v>219</v>
       </c>
       <c r="E85" s="5">
         <v>46631</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" ht="12.75">
       <c r="A86" t="s">
-        <v>253</v>
+        <v>191</v>
       </c>
       <c r="B86" t="s">
-        <v>253</v>
+        <v>191</v>
       </c>
       <c r="C86" t="s">
-        <v>135</v>
+        <v>25</v>
       </c>
       <c r="D86" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E86" s="1">
         <v>46447</v>
       </c>
     </row>
-    <row r="87" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" s="4" customFormat="1" ht="12.75">
       <c r="A87" s="4" t="s">
-        <v>292</v>
+        <v>220</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>293</v>
+        <v>221</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>294</v>
+        <v>222</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>295</v>
+        <v>222</v>
       </c>
       <c r="E87" s="5">
         <v>45536</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" ht="12.75">
       <c r="A88" t="s">
-        <v>296</v>
+        <v>223</v>
       </c>
       <c r="B88" t="s">
-        <v>297</v>
+        <v>224</v>
       </c>
       <c r="C88" t="s">
-        <v>298</v>
+        <v>225</v>
       </c>
       <c r="D88" t="s">
-        <v>299</v>
+        <v>225</v>
       </c>
       <c r="E88" s="1">
         <v>45717</v>
       </c>
     </row>
-    <row r="89" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" s="4" customFormat="1" ht="12.75">
       <c r="A89" s="4" t="s">
-        <v>300</v>
+        <v>226</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>301</v>
+        <v>227</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>302</v>
+        <v>228</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>303</v>
+        <v>229</v>
       </c>
       <c r="E89" s="5">
         <v>47178</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" ht="12.75">
       <c r="A90" t="s">
-        <v>304</v>
+        <v>230</v>
       </c>
       <c r="B90" t="s">
-        <v>305</v>
+        <v>231</v>
       </c>
       <c r="C90" t="s">
-        <v>306</v>
+        <v>157</v>
       </c>
       <c r="D90" t="s">
-        <v>210</v>
+        <v>157</v>
       </c>
       <c r="E90" s="1">
         <v>45536</v>
       </c>
     </row>
-    <row r="91" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" s="4" customFormat="1" ht="12.75">
       <c r="A91" s="4" t="s">
-        <v>307</v>
+        <v>232</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>308</v>
+        <v>233</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>309</v>
+        <v>234</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>310</v>
+        <v>234</v>
       </c>
       <c r="E91" s="5">
         <v>45901</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" ht="12.75">
       <c r="A92" t="s">
-        <v>311</v>
+        <v>235</v>
       </c>
       <c r="B92" t="s">
-        <v>312</v>
+        <v>236</v>
       </c>
       <c r="C92" t="s">
-        <v>303</v>
+        <v>229</v>
       </c>
       <c r="D92" t="s">
-        <v>303</v>
+        <v>229</v>
       </c>
       <c r="E92" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" s="4" customFormat="1" ht="12.75">
       <c r="A93" s="4" t="s">
-        <v>314</v>
+        <v>238</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>315</v>
+        <v>239</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>294</v>
+        <v>222</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>295</v>
+        <v>222</v>
       </c>
       <c r="E93" s="5">
         <v>45536</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" ht="12.75">
       <c r="A94" t="s">
-        <v>316</v>
+        <v>240</v>
       </c>
       <c r="B94" t="s">
-        <v>317</v>
+        <v>241</v>
       </c>
       <c r="C94" t="s">
-        <v>225</v>
+        <v>50</v>
       </c>
       <c r="D94" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="E94" s="1">
         <v>46082</v>
       </c>
     </row>
-    <row r="95" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" s="4" customFormat="1" ht="12.75">
       <c r="A95" s="4" t="s">
-        <v>318</v>
+        <v>242</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>319</v>
+        <v>243</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>320</v>
+        <v>7</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E95" s="5">
         <v>47178</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" ht="12.75">
       <c r="A96" t="s">
-        <v>321</v>
+        <v>244</v>
       </c>
       <c r="B96" t="s">
-        <v>322</v>
+        <v>245</v>
       </c>
       <c r="C96" t="s">
-        <v>323</v>
+        <v>61</v>
       </c>
       <c r="D96" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="E96" s="1">
         <v>46266</v>
       </c>
     </row>
-    <row r="97" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" s="4" customFormat="1" ht="12.75">
       <c r="A97" s="4" t="s">
-        <v>324</v>
+        <v>246</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>325</v>
+        <v>247</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>326</v>
+        <v>127</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>169</v>
+        <v>127</v>
       </c>
       <c r="E97" s="5">
         <v>47178</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" ht="12.75">
       <c r="A98" t="s">
-        <v>327</v>
+        <v>248</v>
       </c>
       <c r="B98" t="s">
-        <v>328</v>
+        <v>249</v>
       </c>
       <c r="C98" t="s">
-        <v>329</v>
+        <v>95</v>
       </c>
       <c r="D98" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="E98" s="1">
         <v>46266</v>
       </c>
     </row>
-    <row r="99" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" s="4" customFormat="1" ht="12.75">
       <c r="A99" s="4" t="s">
-        <v>253</v>
+        <v>191</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>253</v>
+        <v>191</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>330</v>
+        <v>140</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>187</v>
+        <v>140</v>
       </c>
       <c r="E99" s="5">
         <v>46631</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" ht="12.75">
       <c r="A100" t="s">
-        <v>331</v>
+        <v>250</v>
       </c>
       <c r="B100" t="s">
-        <v>332</v>
+        <v>251</v>
       </c>
       <c r="C100" t="s">
-        <v>333</v>
+        <v>98</v>
       </c>
       <c r="D100" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="E100" s="1">
         <v>46082</v>
       </c>
     </row>
-    <row r="101" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" s="4" customFormat="1" ht="12.75">
       <c r="A101" s="4" t="s">
-        <v>334</v>
+        <v>252</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>335</v>
+        <v>253</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>303</v>
+        <v>229</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>303</v>
+        <v>229</v>
       </c>
       <c r="E101" s="5">
         <v>46082</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" ht="12.75">
       <c r="A102" t="s">
-        <v>336</v>
+        <v>254</v>
       </c>
       <c r="B102" t="s">
-        <v>337</v>
+        <v>255</v>
       </c>
       <c r="C102" t="s">
-        <v>338</v>
+        <v>256</v>
       </c>
       <c r="D102" t="s">
-        <v>339</v>
+        <v>256</v>
       </c>
       <c r="E102" s="1">
         <v>46266</v>
       </c>
     </row>
-    <row r="103" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" s="4" customFormat="1" ht="12.75">
       <c r="A103" s="4" t="s">
-        <v>340</v>
+        <v>257</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>341</v>
+        <v>258</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>342</v>
+        <v>259</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>343</v>
+        <v>259</v>
       </c>
       <c r="E103" s="5">
         <v>46631</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" ht="12.75">
       <c r="A104" t="s">
-        <v>344</v>
+        <v>260</v>
       </c>
       <c r="B104" t="s">
-        <v>345</v>
+        <v>261</v>
       </c>
       <c r="C104" t="s">
-        <v>346</v>
+        <v>262</v>
       </c>
       <c r="D104" t="s">
-        <v>347</v>
+        <v>262</v>
       </c>
       <c r="E104" s="1">
         <v>46266</v>
       </c>
     </row>
-    <row r="105" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" s="4" customFormat="1" ht="12.75">
       <c r="A105" s="4" t="s">
-        <v>348</v>
+        <v>263</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>349</v>
+        <v>264</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>350</v>
+        <v>256</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>339</v>
+        <v>256</v>
       </c>
       <c r="E105" s="5">
         <v>46631</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" ht="12.75">
       <c r="A106" t="s">
-        <v>351</v>
+        <v>265</v>
       </c>
       <c r="B106" t="s">
-        <v>352</v>
+        <v>266</v>
       </c>
       <c r="C106" t="s">
-        <v>353</v>
+        <v>127</v>
       </c>
       <c r="D106" t="s">
-        <v>169</v>
+        <v>127</v>
       </c>
       <c r="E106" s="1">
         <v>46997</v>
       </c>
     </row>
-    <row r="107" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" s="4" customFormat="1" ht="12.75">
       <c r="A107" s="4" t="s">
-        <v>354</v>
+        <v>267</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>355</v>
+        <v>268</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>356</v>
+        <v>50</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="E107" s="5">
         <v>46447</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" ht="12.75">
       <c r="A108" t="s">
-        <v>357</v>
+        <v>269</v>
       </c>
       <c r="B108" t="s">
-        <v>358</v>
+        <v>270</v>
       </c>
       <c r="C108" t="s">
-        <v>359</v>
+        <v>271</v>
       </c>
       <c r="D108" t="s">
-        <v>360</v>
+        <v>271</v>
       </c>
       <c r="E108" s="1">
         <v>46631</v>
       </c>
     </row>
-    <row r="109" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" s="4" customFormat="1" ht="12.75">
       <c r="A109" s="4" t="s">
-        <v>361</v>
+        <v>272</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>362</v>
+        <v>273</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>158</v>
+        <v>25</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E109" s="5">
         <v>45717</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" ht="12.75">
       <c r="A110" t="s">
-        <v>363</v>
+        <v>274</v>
       </c>
       <c r="B110" t="s">
-        <v>364</v>
+        <v>275</v>
       </c>
       <c r="C110" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D110" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E110" s="1">
         <v>46813</v>
       </c>
     </row>
-    <row r="111" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" s="4" customFormat="1" ht="12.75">
       <c r="A111" s="4" t="s">
-        <v>365</v>
+        <v>276</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>366</v>
+        <v>277</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>367</v>
+        <v>278</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>368</v>
+        <v>278</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="12.75">
       <c r="A112" t="s">
-        <v>370</v>
+        <v>280</v>
       </c>
       <c r="B112" t="s">
-        <v>371</v>
+        <v>281</v>
       </c>
       <c r="C112" t="s">
-        <v>372</v>
+        <v>282</v>
       </c>
       <c r="D112" t="s">
-        <v>373</v>
+        <v>282</v>
       </c>
       <c r="E112" s="1">
         <v>45717</v>
       </c>
     </row>
-    <row r="113" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" s="4" customFormat="1" ht="12.75">
       <c r="A113" s="4" t="s">
-        <v>374</v>
+        <v>283</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>375</v>
+        <v>284</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>376</v>
+        <v>50</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="E113" s="5">
         <v>46447</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" ht="12.75">
       <c r="A114" t="s">
-        <v>377</v>
+        <v>285</v>
       </c>
       <c r="B114" t="s">
-        <v>378</v>
+        <v>286</v>
       </c>
       <c r="C114" t="s">
-        <v>303</v>
+        <v>229</v>
       </c>
       <c r="D114" t="s">
-        <v>303</v>
+        <v>229</v>
       </c>
       <c r="E114" s="1">
         <v>47178</v>
       </c>
     </row>
-    <row r="115" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" s="4" customFormat="1" ht="12.75">
       <c r="A115" s="4" t="s">
-        <v>379</v>
+        <v>287</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>380</v>
+        <v>288</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>381</v>
+        <v>289</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>382</v>
+        <v>289</v>
       </c>
       <c r="E115" s="5">
         <v>45536</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" ht="12.75">
       <c r="A116" t="s">
-        <v>383</v>
+        <v>290</v>
       </c>
       <c r="B116" t="s">
-        <v>384</v>
+        <v>291</v>
       </c>
       <c r="C116" t="s">
-        <v>385</v>
+        <v>122</v>
       </c>
       <c r="D116" t="s">
-        <v>162</v>
+        <v>122</v>
       </c>
       <c r="E116" s="1">
         <v>45717</v>
       </c>
     </row>
-    <row r="117" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" s="4" customFormat="1" ht="12.75">
       <c r="A117" s="4" t="s">
-        <v>386</v>
+        <v>292</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>387</v>
+        <v>293</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>303</v>
+        <v>229</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>303</v>
+        <v>229</v>
       </c>
       <c r="E117" s="5">
         <v>46631</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" ht="12.75">
       <c r="A118" t="s">
-        <v>388</v>
+        <v>294</v>
       </c>
       <c r="B118" t="s">
-        <v>389</v>
+        <v>295</v>
       </c>
       <c r="C118" t="s">
-        <v>168</v>
+        <v>127</v>
       </c>
       <c r="D118" t="s">
-        <v>169</v>
+        <v>127</v>
       </c>
       <c r="E118" s="1">
         <v>45536</v>
       </c>
     </row>
-    <row r="119" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" s="4" customFormat="1" ht="12.75">
       <c r="A119" s="4" t="s">
-        <v>390</v>
+        <v>296</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>391</v>
+        <v>297</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>392</v>
+        <v>222</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>295</v>
+        <v>222</v>
       </c>
       <c r="E119" s="5">
         <v>45536</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" ht="12.75">
       <c r="A120" t="s">
-        <v>393</v>
+        <v>298</v>
       </c>
       <c r="B120" t="s">
-        <v>394</v>
+        <v>299</v>
       </c>
       <c r="C120" t="s">
-        <v>395</v>
+        <v>140</v>
       </c>
       <c r="D120" t="s">
-        <v>187</v>
+        <v>140</v>
       </c>
       <c r="E120" s="1">
         <v>46997</v>
       </c>
     </row>
-    <row r="121" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" s="4" customFormat="1" ht="12.75">
       <c r="A121" s="4" t="s">
-        <v>396</v>
+        <v>300</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>397</v>
+        <v>301</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>398</v>
+        <v>25</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E121" s="5">
         <v>46813</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" ht="12.75">
       <c r="A122" t="s">
-        <v>399</v>
+        <v>302</v>
       </c>
       <c r="B122" t="s">
-        <v>400</v>
+        <v>303</v>
       </c>
       <c r="C122" t="s">
-        <v>401</v>
+        <v>35</v>
       </c>
       <c r="D122" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E122" s="1">
         <v>46266</v>
       </c>
     </row>
-    <row r="123" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" s="4" customFormat="1" ht="12.75">
       <c r="A123" s="4" t="s">
-        <v>402</v>
+        <v>304</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>403</v>
+        <v>305</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>404</v>
+        <v>54</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="E123" s="5">
         <v>47178</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" ht="12.75">
       <c r="A124" t="s">
-        <v>405</v>
+        <v>306</v>
       </c>
       <c r="B124" t="s">
-        <v>406</v>
+        <v>307</v>
       </c>
       <c r="C124" t="s">
-        <v>407</v>
+        <v>50</v>
       </c>
       <c r="D124" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="E124" s="1">
         <v>45901</v>
       </c>
     </row>
-    <row r="125" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" s="4" customFormat="1" ht="12.75">
       <c r="A125" s="4" t="s">
-        <v>408</v>
+        <v>308</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>409</v>
+        <v>309</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>410</v>
+        <v>214</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>284</v>
+        <v>214</v>
       </c>
       <c r="E125" s="5">
         <v>46447</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" ht="12.75">
       <c r="A126" t="s">
-        <v>411</v>
+        <v>310</v>
       </c>
       <c r="B126" t="s">
-        <v>412</v>
+        <v>311</v>
       </c>
       <c r="C126" t="s">
-        <v>413</v>
+        <v>101</v>
       </c>
       <c r="D126" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="E126" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" s="4" customFormat="1" ht="12.75">
       <c r="A127" s="4" t="s">
-        <v>415</v>
+        <v>313</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>416</v>
+        <v>314</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>417</v>
+        <v>143</v>
       </c>
       <c r="D127" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="12.75">
+      <c r="A128" t="s">
         <v>191</v>
       </c>
-      <c r="E127" s="4" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>253</v>
-      </c>
       <c r="B128" t="s">
-        <v>253</v>
+        <v>191</v>
       </c>
       <c r="C128" t="s">
-        <v>376</v>
+        <v>50</v>
       </c>
       <c r="D128" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="E128" s="1">
         <v>46447</v>
       </c>
     </row>
-    <row r="129" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" s="4" customFormat="1" ht="12.75">
       <c r="A129" s="4" t="s">
-        <v>419</v>
+        <v>316</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>420</v>
+        <v>317</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>385</v>
+        <v>122</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>162</v>
+        <v>122</v>
       </c>
       <c r="E129" s="5">
         <v>45717</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" ht="12.75">
       <c r="A130" t="s">
-        <v>421</v>
+        <v>318</v>
       </c>
       <c r="B130" t="s">
-        <v>422</v>
+        <v>319</v>
       </c>
       <c r="C130" t="s">
-        <v>423</v>
+        <v>289</v>
       </c>
       <c r="D130" t="s">
-        <v>382</v>
+        <v>289</v>
       </c>
       <c r="E130" s="1">
         <v>46813</v>
       </c>
     </row>
-    <row r="131" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" s="4" customFormat="1" ht="12.75">
       <c r="A131" s="4" t="s">
-        <v>424</v>
+        <v>320</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>425</v>
+        <v>321</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>426</v>
+        <v>135</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="E131" s="5">
         <v>46266</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" ht="12.75">
       <c r="A132" t="s">
-        <v>427</v>
+        <v>322</v>
       </c>
       <c r="B132" t="s">
-        <v>428</v>
+        <v>323</v>
       </c>
       <c r="C132" t="s">
-        <v>429</v>
+        <v>324</v>
       </c>
       <c r="D132" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" s="4" customFormat="1" ht="12.75">
       <c r="A133" s="4" t="s">
-        <v>430</v>
+        <v>325</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>431</v>
+        <v>326</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>432</v>
+        <v>101</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="12.75">
       <c r="A134" t="s">
-        <v>433</v>
+        <v>327</v>
       </c>
       <c r="B134" t="s">
-        <v>434</v>
+        <v>328</v>
       </c>
       <c r="C134" t="s">
-        <v>435</v>
+        <v>22</v>
       </c>
       <c r="D134" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E134" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" s="4" customFormat="1" ht="12.75">
       <c r="A135" s="4" t="s">
-        <v>437</v>
+        <v>330</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>438</v>
+        <v>331</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>439</v>
+        <v>278</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>368</v>
+        <v>278</v>
       </c>
       <c r="E135" s="5">
         <v>45717</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" ht="12.75">
       <c r="A136" t="s">
-        <v>440</v>
+        <v>332</v>
       </c>
       <c r="B136" t="s">
-        <v>441</v>
+        <v>333</v>
       </c>
       <c r="C136" t="s">
-        <v>442</v>
+        <v>214</v>
       </c>
       <c r="D136" t="s">
-        <v>284</v>
+        <v>214</v>
       </c>
       <c r="E136" s="1">
         <v>46813</v>
       </c>
     </row>
-    <row r="137" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" s="4" customFormat="1" ht="12.75">
       <c r="A137" s="4" t="s">
-        <v>443</v>
+        <v>334</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>444</v>
+        <v>335</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>445</v>
+        <v>214</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>284</v>
+        <v>214</v>
       </c>
       <c r="E137" s="5">
         <v>46813</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" ht="12.75">
       <c r="A138" t="s">
-        <v>446</v>
+        <v>336</v>
       </c>
       <c r="B138" t="s">
-        <v>447</v>
+        <v>337</v>
       </c>
       <c r="C138" t="s">
-        <v>442</v>
+        <v>214</v>
       </c>
       <c r="D138" t="s">
-        <v>284</v>
+        <v>214</v>
       </c>
       <c r="E138" s="1">
         <v>46813</v>
       </c>
     </row>
-    <row r="139" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" s="4" customFormat="1" ht="12.75">
       <c r="A139" s="4" t="s">
-        <v>448</v>
+        <v>338</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>449</v>
+        <v>339</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>450</v>
+        <v>214</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>284</v>
+        <v>214</v>
       </c>
       <c r="E139" s="5">
         <v>46266</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" ht="12.75">
       <c r="A140" t="s">
-        <v>451</v>
+        <v>340</v>
       </c>
       <c r="B140" t="s">
-        <v>452</v>
+        <v>341</v>
       </c>
       <c r="C140" t="s">
-        <v>453</v>
+        <v>222</v>
       </c>
       <c r="D140" t="s">
-        <v>295</v>
+        <v>222</v>
       </c>
       <c r="E140" s="1">
         <v>46997</v>
       </c>
     </row>
-    <row r="141" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" s="4" customFormat="1" ht="12.75">
       <c r="A141" s="4" t="s">
-        <v>454</v>
+        <v>342</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>455</v>
+        <v>343</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>456</v>
+        <v>344</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>457</v>
+        <v>344</v>
       </c>
       <c r="E141" s="5">
         <v>46631</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" ht="12.75">
       <c r="A142" t="s">
-        <v>458</v>
+        <v>345</v>
       </c>
       <c r="B142" t="s">
-        <v>459</v>
+        <v>346</v>
       </c>
       <c r="C142" t="s">
-        <v>460</v>
+        <v>347</v>
       </c>
       <c r="D142" t="s">
-        <v>461</v>
+        <v>347</v>
       </c>
       <c r="E142" s="1">
         <v>45717</v>
       </c>
     </row>
-    <row r="143" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" s="4" customFormat="1" ht="12.75">
       <c r="A143" s="4" t="s">
-        <v>462</v>
+        <v>348</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>463</v>
+        <v>349</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>464</v>
+        <v>350</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>465</v>
+        <v>351</v>
       </c>
       <c r="E143" s="5">
         <v>47178</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" ht="12.75">
       <c r="A144" t="s">
-        <v>466</v>
+        <v>352</v>
       </c>
       <c r="B144" t="s">
-        <v>467</v>
+        <v>353</v>
       </c>
       <c r="C144" t="s">
-        <v>468</v>
+        <v>32</v>
       </c>
       <c r="D144" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E144" s="1">
         <v>47178</v>
       </c>
     </row>
-    <row r="145" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" s="4" customFormat="1" ht="12.75">
       <c r="A145" s="4" t="s">
-        <v>469</v>
+        <v>354</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>470</v>
+        <v>355</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>471</v>
+        <v>356</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>472</v>
+        <v>356</v>
       </c>
       <c r="E145" s="5">
         <v>45536</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" ht="12.75">
       <c r="A146" t="s">
-        <v>473</v>
+        <v>357</v>
       </c>
       <c r="B146" t="s">
-        <v>474</v>
+        <v>358</v>
       </c>
       <c r="C146" t="s">
-        <v>475</v>
+        <v>359</v>
       </c>
       <c r="D146" t="s">
-        <v>476</v>
+        <v>359</v>
       </c>
       <c r="E146" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" s="4" customFormat="1" ht="12.75">
       <c r="A147" s="4" t="s">
-        <v>477</v>
+        <v>360</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>478</v>
+        <v>361</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>479</v>
+        <v>362</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>480</v>
+        <v>362</v>
       </c>
       <c r="E147" s="5">
         <v>45536</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" ht="12.75">
       <c r="A148" t="s">
-        <v>481</v>
+        <v>363</v>
       </c>
       <c r="B148" t="s">
-        <v>482</v>
+        <v>364</v>
       </c>
       <c r="C148" t="s">
-        <v>483</v>
+        <v>365</v>
       </c>
       <c r="D148" t="s">
-        <v>484</v>
+        <v>365</v>
       </c>
       <c r="E148" s="1">
         <v>46447</v>
       </c>
     </row>
-    <row r="149" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" s="4" customFormat="1" ht="12.75">
       <c r="A149" s="4" t="s">
-        <v>485</v>
+        <v>366</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>486</v>
+        <v>367</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>487</v>
+        <v>365</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>484</v>
+        <v>365</v>
       </c>
       <c r="E149" s="5">
         <v>46266</v>
       </c>
     </row>
-    <row r="150" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="4" t="s">
-        <v>488</v>
-      </c>
-      <c r="B150" s="4" t="s">
-        <v>489</v>
-      </c>
-      <c r="C150" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D150" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="E150" s="5">
+    <row r="150" spans="1:5" ht="12.75">
+      <c r="A150" t="s">
+        <v>191</v>
+      </c>
+      <c r="B150" t="s">
+        <v>191</v>
+      </c>
+      <c r="C150" t="s">
+        <v>50</v>
+      </c>
+      <c r="D150" t="s">
+        <v>50</v>
+      </c>
+      <c r="E150" s="1">
+        <v>46813</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" s="4" customFormat="1" ht="12.75">
+      <c r="A151" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E151" s="5">
         <v>45536</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>490</v>
-      </c>
-      <c r="B151" t="s">
-        <v>491</v>
-      </c>
-      <c r="C151" t="s">
-        <v>492</v>
-      </c>
-      <c r="D151" t="s">
-        <v>180</v>
-      </c>
-      <c r="E151" s="1">
+    <row r="152" spans="1:5" ht="12.75">
+      <c r="A152" t="s">
+        <v>370</v>
+      </c>
+      <c r="B152" t="s">
+        <v>371</v>
+      </c>
+      <c r="C152" t="s">
+        <v>135</v>
+      </c>
+      <c r="D152" t="s">
+        <v>135</v>
+      </c>
+      <c r="E152" s="1">
         <v>45901</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>493</v>
-      </c>
-      <c r="B152" t="s">
-        <v>494</v>
-      </c>
-      <c r="C152" t="s">
-        <v>495</v>
-      </c>
-      <c r="D152" t="s">
-        <v>457</v>
-      </c>
-      <c r="E152" s="1">
-        <v>46997</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" s="4" customFormat="1" ht="12.75">
       <c r="A153" s="4" t="s">
-        <v>496</v>
+        <v>372</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>497</v>
+        <v>373</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>498</v>
+        <v>192</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>258</v>
+        <v>192</v>
       </c>
       <c r="E153" s="5">
-        <v>45901</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+        <v>46813</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="12.75">
       <c r="A154" t="s">
-        <v>499</v>
+        <v>374</v>
       </c>
       <c r="B154" t="s">
-        <v>500</v>
+        <v>375</v>
       </c>
       <c r="C154" t="s">
-        <v>501</v>
+        <v>344</v>
       </c>
       <c r="D154" t="s">
-        <v>77</v>
+        <v>344</v>
       </c>
       <c r="E154" s="1">
         <v>46997</v>
       </c>
     </row>
-    <row r="155" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" s="4" customFormat="1" ht="12.75">
       <c r="A155" s="4" t="s">
-        <v>502</v>
+        <v>376</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>503</v>
+        <v>377</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>155</v>
+        <v>195</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>28</v>
+        <v>195</v>
       </c>
       <c r="E155" s="5">
         <v>45901</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" ht="12.75">
       <c r="A156" t="s">
-        <v>504</v>
+        <v>378</v>
       </c>
       <c r="B156" t="s">
-        <v>505</v>
+        <v>379</v>
       </c>
       <c r="C156" t="s">
-        <v>506</v>
+        <v>61</v>
       </c>
       <c r="D156" t="s">
-        <v>128</v>
+        <v>61</v>
       </c>
       <c r="E156" s="1">
+        <v>46997</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" s="4" customFormat="1" ht="12.75">
+      <c r="A157" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D157" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E157" s="5">
+        <v>45901</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="12.75">
+      <c r="A158" t="s">
+        <v>382</v>
+      </c>
+      <c r="B158" t="s">
+        <v>383</v>
+      </c>
+      <c r="C158" t="s">
+        <v>98</v>
+      </c>
+      <c r="D158" t="s">
+        <v>98</v>
+      </c>
+      <c r="E158" s="1">
         <v>45536</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>507</v>
-      </c>
-      <c r="B157" t="s">
-        <v>508</v>
-      </c>
-      <c r="C157" t="s">
-        <v>509</v>
-      </c>
-      <c r="D157" t="s">
-        <v>295</v>
-      </c>
-      <c r="E157" s="1">
+    <row r="159" spans="1:5" s="4" customFormat="1" ht="12.75">
+      <c r="A159" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E159" s="5">
+        <v>45901</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="12.75">
+      <c r="A160" t="s">
+        <v>384</v>
+      </c>
+      <c r="B160" t="s">
+        <v>385</v>
+      </c>
+      <c r="C160" t="s">
+        <v>222</v>
+      </c>
+      <c r="D160" t="s">
+        <v>222</v>
+      </c>
+      <c r="E160" s="1">
         <v>46997</v>
       </c>
     </row>
-    <row r="158" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="4" t="s">
-        <v>510</v>
-      </c>
-      <c r="B158" s="4" t="s">
-        <v>511</v>
-      </c>
-      <c r="C158" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="D158" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="E158" s="5">
+    <row r="161" spans="1:5" s="4" customFormat="1" ht="12.75">
+      <c r="A161" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D161" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E161" s="5">
         <v>46631</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>513</v>
-      </c>
-      <c r="B159" t="s">
-        <v>514</v>
-      </c>
-      <c r="C159" t="s">
-        <v>515</v>
-      </c>
-      <c r="D159" t="s">
-        <v>42</v>
-      </c>
-      <c r="E159" s="1">
+    <row r="162" spans="1:5" ht="12.75">
+      <c r="A162" t="s">
+        <v>388</v>
+      </c>
+      <c r="B162" t="s">
+        <v>389</v>
+      </c>
+      <c r="C162" t="s">
+        <v>32</v>
+      </c>
+      <c r="D162" t="s">
+        <v>32</v>
+      </c>
+      <c r="E162" s="1">
         <v>45717</v>
       </c>
     </row>
-    <row r="160" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="4" t="s">
-        <v>516</v>
-      </c>
-      <c r="B160" s="4" t="s">
-        <v>517</v>
-      </c>
-      <c r="C160" s="4" t="s">
-        <v>518</v>
-      </c>
-      <c r="D160" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="E160" s="5">
+    <row r="163" spans="1:5" s="4" customFormat="1" ht="12.75">
+      <c r="A163" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D163" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E163" s="5">
         <v>46447</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>519</v>
-      </c>
-      <c r="B161" t="s">
-        <v>520</v>
-      </c>
-      <c r="C161" t="s">
-        <v>521</v>
-      </c>
-      <c r="D161" t="s">
-        <v>46</v>
-      </c>
-      <c r="E161" s="1">
+    <row r="164" spans="1:5" ht="12.75">
+      <c r="A164" t="s">
+        <v>392</v>
+      </c>
+      <c r="B164" t="s">
+        <v>393</v>
+      </c>
+      <c r="C164" t="s">
+        <v>35</v>
+      </c>
+      <c r="D164" t="s">
+        <v>35</v>
+      </c>
+      <c r="E164" s="1">
         <v>46266</v>
       </c>
     </row>
-    <row r="162" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="4" t="s">
-        <v>522</v>
-      </c>
-      <c r="B162" s="4" t="s">
-        <v>523</v>
-      </c>
-      <c r="C162" s="4" t="s">
-        <v>524</v>
-      </c>
-      <c r="D162" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="E162" s="5">
+    <row r="165" spans="1:5" s="4" customFormat="1" ht="12.75">
+      <c r="A165" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D165" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E165" s="5">
         <v>47178</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>525</v>
-      </c>
-      <c r="B163" t="s">
-        <v>526</v>
-      </c>
-      <c r="C163" t="s">
-        <v>527</v>
-      </c>
-      <c r="D163" t="s">
-        <v>113</v>
-      </c>
-      <c r="E163" s="1">
+    <row r="166" spans="1:5" ht="12.75">
+      <c r="A166" t="s">
+        <v>396</v>
+      </c>
+      <c r="B166" t="s">
+        <v>397</v>
+      </c>
+      <c r="C166" t="s">
+        <v>87</v>
+      </c>
+      <c r="D166" t="s">
+        <v>87</v>
+      </c>
+      <c r="E166" s="1">
         <v>46266</v>
       </c>
     </row>
-    <row r="164" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="4" t="s">
-        <v>528</v>
-      </c>
-      <c r="B164" s="4" t="s">
-        <v>529</v>
-      </c>
-      <c r="C164" s="4" t="s">
-        <v>530</v>
-      </c>
-      <c r="D164" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="E164" s="5">
+    <row r="167" spans="1:5" s="4" customFormat="1" ht="12.75">
+      <c r="A167" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="D167" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="E167" s="5">
         <v>46631</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>532</v>
-      </c>
-      <c r="B165" t="s">
-        <v>533</v>
-      </c>
-      <c r="C165" t="s">
-        <v>534</v>
-      </c>
-      <c r="D165" t="s">
-        <v>210</v>
-      </c>
-      <c r="E165" s="1">
+    <row r="168" spans="1:5" ht="12.75">
+      <c r="A168" t="s">
+        <v>401</v>
+      </c>
+      <c r="B168" t="s">
+        <v>402</v>
+      </c>
+      <c r="C168" t="s">
+        <v>157</v>
+      </c>
+      <c r="D168" t="s">
+        <v>157</v>
+      </c>
+      <c r="E168" s="1">
         <v>46266</v>
       </c>
     </row>
-    <row r="166" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="4" t="s">
-        <v>535</v>
-      </c>
-      <c r="B166" s="4" t="s">
-        <v>536</v>
-      </c>
-      <c r="C166" s="4" t="s">
-        <v>537</v>
-      </c>
-      <c r="D166" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="E166" s="5">
+    <row r="169" spans="1:5" s="4" customFormat="1" ht="12.75">
+      <c r="A169" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D169" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E169" s="5">
         <v>45901</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>538</v>
-      </c>
-      <c r="B167" t="s">
-        <v>539</v>
-      </c>
-      <c r="C167" t="s">
-        <v>540</v>
-      </c>
-      <c r="D167" t="s">
-        <v>28</v>
-      </c>
-      <c r="E167" s="1">
+    <row r="170" spans="1:5" ht="12.75">
+      <c r="A170" t="s">
+        <v>405</v>
+      </c>
+      <c r="B170" t="s">
+        <v>406</v>
+      </c>
+      <c r="C170" t="s">
+        <v>22</v>
+      </c>
+      <c r="D170" t="s">
+        <v>22</v>
+      </c>
+      <c r="E170" s="1">
         <v>45536</v>
       </c>
     </row>
-    <row r="168" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="B168" s="4" t="s">
-        <v>542</v>
-      </c>
-      <c r="C168" s="4" t="s">
-        <v>543</v>
-      </c>
-      <c r="D168" s="4" t="s">
+    <row r="171" spans="1:5" s="4" customFormat="1" ht="12.75">
+      <c r="A171" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D171" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E171" s="5">
+        <v>47178</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="12.75">
+      <c r="A172" t="s">
+        <v>409</v>
+      </c>
+      <c r="B172" t="s">
+        <v>410</v>
+      </c>
+      <c r="C172" t="s">
+        <v>61</v>
+      </c>
+      <c r="D172" t="s">
+        <v>61</v>
+      </c>
+      <c r="E172" s="1">
+        <v>45901</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" s="4" customFormat="1" ht="12.75">
+      <c r="A173" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D173" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E173" s="5">
+        <v>45901</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="12.75">
+      <c r="A174" t="s">
+        <v>413</v>
+      </c>
+      <c r="B174" t="s">
+        <v>414</v>
+      </c>
+      <c r="C174" t="s">
+        <v>54</v>
+      </c>
+      <c r="D174" t="s">
+        <v>54</v>
+      </c>
+      <c r="E174" s="1">
+        <v>45717</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" s="4" customFormat="1" ht="12.75">
+      <c r="A175" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D175" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E175" s="4" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="12.75">
+      <c r="A176" t="s">
+        <v>418</v>
+      </c>
+      <c r="B176" t="s">
+        <v>419</v>
+      </c>
+      <c r="C176" t="s">
+        <v>25</v>
+      </c>
+      <c r="D176" t="s">
+        <v>25</v>
+      </c>
+      <c r="E176" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" s="4" customFormat="1" ht="12.75">
+      <c r="A177" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D177" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E177" s="5">
+        <v>46447</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="12.75">
+      <c r="A178" t="s">
+        <v>422</v>
+      </c>
+      <c r="B178" t="s">
+        <v>423</v>
+      </c>
+      <c r="C178" t="s">
+        <v>25</v>
+      </c>
+      <c r="D178" t="s">
+        <v>25</v>
+      </c>
+      <c r="E178" s="1">
+        <v>46082</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" s="4" customFormat="1" ht="12.75">
+      <c r="A179" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D179" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E179" s="5">
+        <v>46266</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="12.75">
+      <c r="A180" t="s">
+        <v>426</v>
+      </c>
+      <c r="B180" t="s">
+        <v>427</v>
+      </c>
+      <c r="C180" t="s">
+        <v>127</v>
+      </c>
+      <c r="D180" t="s">
+        <v>127</v>
+      </c>
+      <c r="E180" s="1">
+        <v>46631</v>
+      </c>
+    </row>
+    <row r="181" spans="3:5" s="4" customFormat="1" ht="12.75">
+      <c r="C181" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E181" s="5">
+        <v>46082</v>
+      </c>
+    </row>
+    <row r="182" spans="3:5" ht="12.75">
+      <c r="C182" t="s">
+        <v>25</v>
+      </c>
+      <c r="E182" s="1">
+        <v>46813</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" s="4" customFormat="1" ht="12.75">
+      <c r="A183" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C183" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E168" s="5">
+      <c r="D183" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E183" s="5">
+        <v>46447</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="12.75">
+      <c r="A184" t="s">
+        <v>430</v>
+      </c>
+      <c r="B184" t="s">
+        <v>431</v>
+      </c>
+      <c r="C184" t="s">
+        <v>214</v>
+      </c>
+      <c r="D184" t="s">
+        <v>214</v>
+      </c>
+      <c r="E184" s="1">
+        <v>46266</v>
+      </c>
+    </row>
+    <row r="185" spans="3:5" s="4" customFormat="1" ht="12.75">
+      <c r="C185" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E185" s="5">
+        <v>46082</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="12.75">
+      <c r="A186" t="s">
+        <v>432</v>
+      </c>
+      <c r="B186" t="s">
+        <v>433</v>
+      </c>
+      <c r="C186" t="s">
+        <v>95</v>
+      </c>
+      <c r="D186" t="s">
+        <v>95</v>
+      </c>
+      <c r="E186" s="1">
+        <v>45717</v>
+      </c>
+    </row>
+    <row r="187" spans="3:5" s="4" customFormat="1" ht="12.75">
+      <c r="C187" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E187" s="5">
+        <v>46813</v>
+      </c>
+    </row>
+    <row r="188" spans="3:5" ht="12.75">
+      <c r="C188" t="s">
+        <v>50</v>
+      </c>
+      <c r="E188" s="1">
+        <v>46997</v>
+      </c>
+    </row>
+    <row r="189" spans="3:5" s="4" customFormat="1" ht="12.75">
+      <c r="C189" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="D189" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="E189" s="5">
+        <v>45717</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="12.75">
+      <c r="A190" t="s">
+        <v>434</v>
+      </c>
+      <c r="B190" t="s">
+        <v>435</v>
+      </c>
+      <c r="C190" t="s">
+        <v>344</v>
+      </c>
+      <c r="D190" t="s">
+        <v>344</v>
+      </c>
+      <c r="E190" s="1">
         <v>47178</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>544</v>
-      </c>
-      <c r="B169" t="s">
-        <v>545</v>
-      </c>
-      <c r="C169" t="s">
-        <v>546</v>
-      </c>
-      <c r="D169" t="s">
-        <v>77</v>
-      </c>
-      <c r="E169" s="1">
+    <row r="191" spans="1:5" s="4" customFormat="1" ht="12.75">
+      <c r="A191" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D191" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E191" s="5">
+        <v>46082</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="12.75">
+      <c r="A192" t="s">
+        <v>438</v>
+      </c>
+      <c r="B192" t="s">
+        <v>439</v>
+      </c>
+      <c r="C192" t="s">
+        <v>54</v>
+      </c>
+      <c r="D192" t="s">
+        <v>54</v>
+      </c>
+      <c r="E192" s="1">
+        <v>46813</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" s="4" customFormat="1" ht="12.75">
+      <c r="A193" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="C193" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D193" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E193" s="5">
+        <v>46082</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" ht="12.75">
+      <c r="A194" t="s">
+        <v>442</v>
+      </c>
+      <c r="B194" t="s">
+        <v>443</v>
+      </c>
+      <c r="C194" t="s">
+        <v>157</v>
+      </c>
+      <c r="D194" t="s">
+        <v>157</v>
+      </c>
+      <c r="E194" s="1">
         <v>45901</v>
       </c>
     </row>
-    <row r="170" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="4" t="s">
-        <v>547</v>
-      </c>
-      <c r="B170" s="4" t="s">
-        <v>548</v>
-      </c>
-      <c r="C170" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="D170" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E170" s="5">
+    <row r="195" spans="1:5" s="4" customFormat="1" ht="12.75">
+      <c r="A195" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="C195" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D195" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E195" s="5">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="196" spans="3:5" ht="12.75">
+      <c r="C196" t="s">
+        <v>189</v>
+      </c>
+      <c r="E196" s="1">
         <v>45901</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>550</v>
-      </c>
-      <c r="B171" t="s">
-        <v>551</v>
-      </c>
-      <c r="C171" t="s">
-        <v>552</v>
-      </c>
-      <c r="D171" t="s">
-        <v>69</v>
-      </c>
-      <c r="E171" s="1">
+    <row r="197" spans="1:5" s="4" customFormat="1" ht="12.75">
+      <c r="A197" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="C197" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D197" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E197" s="5">
+        <v>46266</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" ht="12.75">
+      <c r="A198" t="s">
+        <v>448</v>
+      </c>
+      <c r="B198" t="s">
+        <v>449</v>
+      </c>
+      <c r="C198" t="s">
+        <v>450</v>
+      </c>
+      <c r="D198" t="s">
+        <v>450</v>
+      </c>
+      <c r="E198" s="1">
+        <v>46813</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" s="4" customFormat="1" ht="12.75">
+      <c r="A199" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="C199" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="D199" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="E199" s="5">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" ht="12.75">
+      <c r="A200" t="s">
+        <v>454</v>
+      </c>
+      <c r="B200" t="s">
+        <v>455</v>
+      </c>
+      <c r="C200" t="s">
+        <v>87</v>
+      </c>
+      <c r="D200" t="s">
+        <v>87</v>
+      </c>
+      <c r="E200" s="1">
+        <v>46813</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" s="4" customFormat="1" ht="12.75">
+      <c r="A201" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="C201" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D201" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E201" s="5">
+        <v>46082</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" ht="12.75">
+      <c r="A202" t="s">
+        <v>458</v>
+      </c>
+      <c r="B202" t="s">
+        <v>459</v>
+      </c>
+      <c r="C202" t="s">
+        <v>22</v>
+      </c>
+      <c r="D202" t="s">
+        <v>22</v>
+      </c>
+      <c r="E202" s="1">
+        <v>45901</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" s="4" customFormat="1" ht="12.75">
+      <c r="A203" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="C203" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D203" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E203" s="5">
+        <v>46082</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" ht="12.75">
+      <c r="A204" t="s">
+        <v>462</v>
+      </c>
+      <c r="B204" t="s">
+        <v>463</v>
+      </c>
+      <c r="C204" t="s">
+        <v>157</v>
+      </c>
+      <c r="D204" t="s">
+        <v>157</v>
+      </c>
+      <c r="E204" s="1">
+        <v>45901</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" s="4" customFormat="1" ht="12.75">
+      <c r="A205" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="C205" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D205" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E205" s="5">
         <v>45717</v>
       </c>
     </row>
-    <row r="172" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="4" t="s">
-        <v>553</v>
-      </c>
-      <c r="B172" s="4" t="s">
-        <v>554</v>
-      </c>
-      <c r="C172" s="4" t="s">
-        <v>555</v>
-      </c>
-      <c r="D172" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E172" s="4" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>557</v>
-      </c>
-      <c r="B173" t="s">
-        <v>558</v>
-      </c>
-      <c r="C173" t="s">
-        <v>559</v>
-      </c>
-      <c r="D173" t="s">
-        <v>32</v>
-      </c>
-      <c r="E173" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="4" t="s">
-        <v>560</v>
-      </c>
-      <c r="B174" s="4" t="s">
-        <v>561</v>
-      </c>
-      <c r="C174" s="4" t="s">
-        <v>562</v>
-      </c>
-      <c r="D174" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E174" s="5">
+    <row r="206" spans="1:5" ht="12.75">
+      <c r="A206" t="s">
+        <v>466</v>
+      </c>
+      <c r="B206" t="s">
+        <v>467</v>
+      </c>
+      <c r="C206" t="s">
+        <v>54</v>
+      </c>
+      <c r="D206" t="s">
+        <v>54</v>
+      </c>
+      <c r="E206" s="1">
         <v>46447</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>563</v>
-      </c>
-      <c r="B175" t="s">
-        <v>564</v>
-      </c>
-      <c r="C175" t="s">
+    <row r="207" spans="1:5" s="4" customFormat="1" ht="12.75">
+      <c r="A207" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="C207" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D207" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E207" s="5">
+        <v>46997</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" ht="12.75">
+      <c r="A208" t="s">
+        <v>470</v>
+      </c>
+      <c r="B208" t="s">
+        <v>471</v>
+      </c>
+      <c r="C208" t="s">
+        <v>157</v>
+      </c>
+      <c r="D208" t="s">
+        <v>157</v>
+      </c>
+      <c r="E208" s="1">
+        <v>46997</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" s="4" customFormat="1" ht="12.75">
+      <c r="A209" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="C209" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D175" t="s">
-        <v>32</v>
-      </c>
-      <c r="E175" s="1">
-        <v>46082</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="4" t="s">
-        <v>565</v>
-      </c>
-      <c r="B176" s="4" t="s">
-        <v>566</v>
-      </c>
-      <c r="C176" s="4" t="s">
-        <v>567</v>
-      </c>
-      <c r="D176" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E176" s="5">
-        <v>46266</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>568</v>
-      </c>
-      <c r="B177" t="s">
-        <v>569</v>
-      </c>
-      <c r="C177" t="s">
-        <v>570</v>
-      </c>
-      <c r="D177" t="s">
-        <v>169</v>
-      </c>
-      <c r="E177" s="1">
-        <v>46631</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="4" t="s">
-        <v>571</v>
-      </c>
-      <c r="B178" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="C178" s="4" t="s">
-        <v>573</v>
-      </c>
-      <c r="D178" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E178" s="5">
+      <c r="D209" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E209" s="5">
         <v>46447</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>574</v>
-      </c>
-      <c r="B179" t="s">
-        <v>575</v>
-      </c>
-      <c r="C179" t="s">
-        <v>576</v>
-      </c>
-      <c r="D179" t="s">
-        <v>284</v>
-      </c>
-      <c r="E179" s="1">
-        <v>46266</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>577</v>
-      </c>
-      <c r="B180" t="s">
-        <v>578</v>
-      </c>
-      <c r="C180" t="s">
-        <v>579</v>
-      </c>
-      <c r="D180" t="s">
-        <v>124</v>
-      </c>
-      <c r="E180" s="1">
-        <v>45717</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>580</v>
-      </c>
-      <c r="B181" t="s">
-        <v>581</v>
-      </c>
-      <c r="C181" t="s">
-        <v>582</v>
-      </c>
-      <c r="D181" t="s">
-        <v>457</v>
-      </c>
-      <c r="E181" s="1">
-        <v>47178</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="4" t="s">
-        <v>583</v>
-      </c>
-      <c r="B182" s="4" t="s">
-        <v>584</v>
-      </c>
-      <c r="C182" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="D182" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E182" s="5">
-        <v>46082</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>585</v>
-      </c>
-      <c r="B183" t="s">
-        <v>586</v>
-      </c>
-      <c r="C183" t="s">
-        <v>587</v>
-      </c>
-      <c r="D183" t="s">
-        <v>69</v>
-      </c>
-      <c r="E183" s="1">
-        <v>46813</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="4" t="s">
-        <v>588</v>
-      </c>
-      <c r="B184" s="4" t="s">
-        <v>589</v>
-      </c>
-      <c r="C184" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D184" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E184" s="5">
-        <v>46082</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>590</v>
-      </c>
-      <c r="B185" t="s">
-        <v>591</v>
-      </c>
-      <c r="C185" t="s">
-        <v>592</v>
-      </c>
-      <c r="D185" t="s">
-        <v>210</v>
-      </c>
-      <c r="E185" s="1">
-        <v>45901</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="4" t="s">
-        <v>593</v>
-      </c>
-      <c r="B186" s="4" t="s">
-        <v>594</v>
-      </c>
-      <c r="C186" s="4" t="s">
-        <v>595</v>
-      </c>
-      <c r="D186" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E186" s="5">
-        <v>45536</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C187" t="s">
-        <v>251</v>
-      </c>
-      <c r="E187" s="1">
-        <v>45901</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="4" t="s">
-        <v>596</v>
-      </c>
-      <c r="B188" s="4" t="s">
-        <v>597</v>
-      </c>
-      <c r="C188" s="4" t="s">
-        <v>598</v>
-      </c>
-      <c r="D188" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E188" s="5">
-        <v>46266</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>599</v>
-      </c>
-      <c r="B189" t="s">
-        <v>600</v>
-      </c>
-      <c r="C189" t="s">
-        <v>601</v>
-      </c>
-      <c r="D189" t="s">
-        <v>602</v>
-      </c>
-      <c r="E189" s="1">
-        <v>46813</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="4" t="s">
-        <v>603</v>
-      </c>
-      <c r="B190" s="4" t="s">
-        <v>604</v>
-      </c>
-      <c r="C190" s="4" t="s">
-        <v>605</v>
-      </c>
-      <c r="D190" s="4" t="s">
-        <v>606</v>
-      </c>
-      <c r="E190" s="5">
-        <v>45536</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>607</v>
-      </c>
-      <c r="B191" t="s">
-        <v>608</v>
-      </c>
-      <c r="C191" t="s">
-        <v>609</v>
-      </c>
-      <c r="D191" t="s">
-        <v>113</v>
-      </c>
-      <c r="E191" s="1">
-        <v>46813</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="4" t="s">
-        <v>610</v>
-      </c>
-      <c r="B192" s="4" t="s">
-        <v>611</v>
-      </c>
-      <c r="C192" s="4" t="s">
-        <v>612</v>
-      </c>
-      <c r="D192" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E192" s="5">
-        <v>46082</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
-        <v>613</v>
-      </c>
-      <c r="B193" t="s">
-        <v>614</v>
-      </c>
-      <c r="C193" t="s">
-        <v>155</v>
-      </c>
-      <c r="D193" t="s">
-        <v>28</v>
-      </c>
-      <c r="E193" s="1">
-        <v>45901</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="4" t="s">
-        <v>615</v>
-      </c>
-      <c r="B194" s="4" t="s">
-        <v>616</v>
-      </c>
-      <c r="C194" s="4" t="s">
-        <v>617</v>
-      </c>
-      <c r="D194" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E194" s="5">
-        <v>46082</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>618</v>
-      </c>
-      <c r="B195" t="s">
-        <v>619</v>
-      </c>
-      <c r="C195" t="s">
-        <v>592</v>
-      </c>
-      <c r="D195" t="s">
-        <v>210</v>
-      </c>
-      <c r="E195" s="1">
-        <v>45901</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="4" t="s">
-        <v>620</v>
-      </c>
-      <c r="B196" s="4" t="s">
-        <v>621</v>
-      </c>
-      <c r="C196" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="D196" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="E196" s="5">
-        <v>45717</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>622</v>
-      </c>
-      <c r="B197" t="s">
-        <v>623</v>
-      </c>
-      <c r="C197" t="s">
-        <v>144</v>
-      </c>
-      <c r="D197" t="s">
-        <v>69</v>
-      </c>
-      <c r="E197" s="1">
-        <v>46447</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="4" t="s">
-        <v>624</v>
-      </c>
-      <c r="B198" s="4" t="s">
-        <v>625</v>
-      </c>
-      <c r="C198" s="4" t="s">
-        <v>626</v>
-      </c>
-      <c r="D198" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E198" s="5">
-        <v>46997</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
-        <v>627</v>
-      </c>
-      <c r="B199" t="s">
-        <v>628</v>
-      </c>
-      <c r="C199" t="s">
-        <v>629</v>
-      </c>
-      <c r="D199" t="s">
-        <v>210</v>
-      </c>
-      <c r="E199" s="1">
-        <v>46997</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="4" t="s">
-        <v>630</v>
-      </c>
-      <c r="B200" s="4" t="s">
-        <v>631</v>
-      </c>
-      <c r="C200" s="4" t="s">
-        <v>632</v>
-      </c>
-      <c r="D200" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E200" s="5">
-        <v>46447</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>633</v>
-      </c>
-      <c r="B201" t="s">
-        <v>634</v>
-      </c>
-      <c r="C201" t="s">
-        <v>635</v>
-      </c>
-      <c r="D201" t="s">
-        <v>373</v>
-      </c>
-      <c r="E201" s="1">
-        <v>45901</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="4" t="s">
-        <v>636</v>
-      </c>
-      <c r="B202" s="4" t="s">
-        <v>637</v>
-      </c>
-      <c r="C202" s="4" t="s">
-        <v>638</v>
-      </c>
-      <c r="D202" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E202" s="5">
-        <v>46631</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>639</v>
-      </c>
-      <c r="B203" t="s">
-        <v>640</v>
-      </c>
-      <c r="C203" t="s">
-        <v>641</v>
-      </c>
-      <c r="D203" t="s">
-        <v>476</v>
-      </c>
-      <c r="E203" s="1">
-        <v>46997</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="4" t="s">
-        <v>642</v>
-      </c>
-      <c r="B204" s="4" t="s">
-        <v>643</v>
-      </c>
-      <c r="C204" s="4" t="s">
-        <v>644</v>
-      </c>
-      <c r="D204" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E204" s="5">
-        <v>46631</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="4" t="s">
-        <v>645</v>
-      </c>
-      <c r="B205" s="4" t="s">
-        <v>646</v>
-      </c>
-      <c r="C205" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="D205" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E205" s="5">
-        <v>45536</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
-        <v>647</v>
-      </c>
-      <c r="B206" t="s">
-        <v>648</v>
-      </c>
-      <c r="C206" t="s">
-        <v>649</v>
-      </c>
-      <c r="D206" t="s">
-        <v>46</v>
-      </c>
-      <c r="E206" s="1">
-        <v>45536</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="4" t="s">
-        <v>650</v>
-      </c>
-      <c r="B207" s="4" t="s">
-        <v>651</v>
-      </c>
-      <c r="C207" s="4" t="s">
-        <v>652</v>
-      </c>
-      <c r="D207" s="4" t="s">
-        <v>653</v>
-      </c>
-      <c r="E207" s="5">
-        <v>46813</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
-        <v>654</v>
-      </c>
-      <c r="B208" t="s">
-        <v>655</v>
-      </c>
-      <c r="C208" t="s">
-        <v>656</v>
-      </c>
-      <c r="D208" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="4" t="s">
-        <v>657</v>
-      </c>
-      <c r="B209" s="4" t="s">
-        <v>658</v>
-      </c>
-      <c r="C209" s="4" t="s">
-        <v>659</v>
-      </c>
-      <c r="D209" s="4" t="s">
-        <v>653</v>
-      </c>
-      <c r="E209" s="5">
-        <v>45536</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" ht="12.75">
       <c r="A210" t="s">
-        <v>660</v>
+        <v>474</v>
       </c>
       <c r="B210" t="s">
-        <v>661</v>
+        <v>475</v>
       </c>
       <c r="C210" t="s">
-        <v>662</v>
+        <v>282</v>
       </c>
       <c r="D210" t="s">
-        <v>132</v>
+        <v>282</v>
       </c>
       <c r="E210" s="1">
         <v>45901</v>
       </c>
     </row>
-    <row r="211" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" s="4" customFormat="1" ht="12.75">
       <c r="A211" s="4" t="s">
-        <v>663</v>
+        <v>476</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>664</v>
+        <v>477</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>665</v>
+        <v>22</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>284</v>
+        <v>22</v>
       </c>
       <c r="E211" s="5">
+        <v>46631</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" ht="12.75">
+      <c r="A212" t="s">
+        <v>478</v>
+      </c>
+      <c r="B212" t="s">
+        <v>479</v>
+      </c>
+      <c r="C212" t="s">
+        <v>359</v>
+      </c>
+      <c r="D212" t="s">
+        <v>359</v>
+      </c>
+      <c r="E212" s="1">
+        <v>46997</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" s="4" customFormat="1" ht="12.75">
+      <c r="A213" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="C213" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D213" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E213" s="5">
+        <v>46631</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" ht="12.75">
+      <c r="A214" t="s">
+        <v>191</v>
+      </c>
+      <c r="B214" t="s">
+        <v>191</v>
+      </c>
+      <c r="C214" t="s">
+        <v>282</v>
+      </c>
+      <c r="D214" t="s">
+        <v>282</v>
+      </c>
+      <c r="E214" s="1">
+        <v>45901</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" s="4" customFormat="1" ht="12.75">
+      <c r="A215" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="B215" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="C215" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D215" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E215" s="5">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" ht="12.75">
+      <c r="A216" t="s">
+        <v>484</v>
+      </c>
+      <c r="B216" t="s">
+        <v>485</v>
+      </c>
+      <c r="C216" t="s">
+        <v>35</v>
+      </c>
+      <c r="D216" t="s">
+        <v>35</v>
+      </c>
+      <c r="E216" s="1">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" s="4" customFormat="1" ht="12.75">
+      <c r="A217" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="B217" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="C217" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="D217" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="E217" s="5">
+        <v>46813</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" ht="12.75">
+      <c r="A218" t="s">
+        <v>489</v>
+      </c>
+      <c r="B218" t="s">
+        <v>490</v>
+      </c>
+      <c r="C218" t="s">
+        <v>491</v>
+      </c>
+      <c r="D218" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" s="4" customFormat="1" ht="12.75">
+      <c r="A219" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="B219" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="C219" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="D219" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="E219" s="5">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" ht="12.75">
+      <c r="A220" t="s">
+        <v>494</v>
+      </c>
+      <c r="B220" t="s">
+        <v>495</v>
+      </c>
+      <c r="C220" t="s">
+        <v>101</v>
+      </c>
+      <c r="D220" t="s">
+        <v>101</v>
+      </c>
+      <c r="E220" s="1">
+        <v>45901</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" s="4" customFormat="1" ht="12.75">
+      <c r="A221" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="B221" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="C221" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D221" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="E221" s="5">
         <v>46266</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
-        <v>666</v>
-      </c>
-      <c r="B212" t="s">
-        <v>667</v>
-      </c>
-      <c r="C212" t="s">
-        <v>668</v>
-      </c>
-      <c r="D212" t="s">
-        <v>46</v>
-      </c>
-      <c r="E212" s="1">
+    <row r="222" spans="1:5" ht="12.75">
+      <c r="A222" t="s">
+        <v>498</v>
+      </c>
+      <c r="B222" t="s">
+        <v>499</v>
+      </c>
+      <c r="C222" t="s">
+        <v>35</v>
+      </c>
+      <c r="D222" t="s">
+        <v>35</v>
+      </c>
+      <c r="E222" s="1">
         <v>45536</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
-        <v>669</v>
-      </c>
-      <c r="B213" t="s">
-        <v>670</v>
-      </c>
-      <c r="C213" t="s">
-        <v>254</v>
-      </c>
-      <c r="D213" t="s">
-        <v>254</v>
-      </c>
-      <c r="E213" s="1">
+    <row r="223" spans="3:5" s="4" customFormat="1" ht="12.75">
+      <c r="C223" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="E223" s="5">
+        <v>46266</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" ht="12.75">
+      <c r="A224" t="s">
+        <v>500</v>
+      </c>
+      <c r="B224" t="s">
+        <v>501</v>
+      </c>
+      <c r="C224" t="s">
+        <v>192</v>
+      </c>
+      <c r="D224" t="s">
+        <v>192</v>
+      </c>
+      <c r="E224" s="1">
         <v>46631</v>
       </c>
     </row>
-    <row r="214" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="4" t="s">
-        <v>671</v>
-      </c>
-      <c r="B214" s="4" t="s">
-        <v>672</v>
-      </c>
-      <c r="C214" s="4" t="s">
-        <v>673</v>
-      </c>
-      <c r="D214" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E214" s="5">
+    <row r="225" spans="1:5" s="4" customFormat="1" ht="12.75">
+      <c r="A225" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="B225" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="C225" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D225" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E225" s="5">
         <v>46813</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
-        <v>674</v>
-      </c>
-      <c r="B215" t="s">
-        <v>675</v>
-      </c>
-      <c r="C215" t="s">
-        <v>676</v>
-      </c>
-      <c r="D215" t="s">
-        <v>457</v>
-      </c>
-      <c r="E215" s="1">
+    <row r="226" spans="1:5" ht="12.75">
+      <c r="A226" t="s">
+        <v>504</v>
+      </c>
+      <c r="B226" t="s">
+        <v>505</v>
+      </c>
+      <c r="C226" t="s">
+        <v>344</v>
+      </c>
+      <c r="D226" t="s">
+        <v>344</v>
+      </c>
+      <c r="E226" s="1">
         <v>45901</v>
       </c>
     </row>
-    <row r="216" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="4" t="s">
-        <v>677</v>
-      </c>
-      <c r="B216" s="4" t="s">
-        <v>678</v>
-      </c>
-      <c r="C216" s="4" t="s">
-        <v>679</v>
-      </c>
-      <c r="D216" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="E216" s="4" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
-        <v>681</v>
-      </c>
-      <c r="B217" t="s">
-        <v>682</v>
-      </c>
-      <c r="C217" t="s">
-        <v>683</v>
-      </c>
-      <c r="D217" t="s">
-        <v>310</v>
-      </c>
-      <c r="E217" s="1">
+    <row r="227" spans="1:5" s="4" customFormat="1" ht="12.75">
+      <c r="A227" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="B227" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="C227" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D227" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="E227" s="4" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" ht="12.75">
+      <c r="A228" t="s">
+        <v>509</v>
+      </c>
+      <c r="B228" t="s">
+        <v>510</v>
+      </c>
+      <c r="C228" t="s">
+        <v>234</v>
+      </c>
+      <c r="D228" t="s">
+        <v>234</v>
+      </c>
+      <c r="E228" s="1">
         <v>46997</v>
       </c>
     </row>
-    <row r="218" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="4" t="s">
-        <v>684</v>
-      </c>
-      <c r="B218" s="4" t="s">
-        <v>685</v>
-      </c>
-      <c r="C218" s="4" t="s">
-        <v>686</v>
-      </c>
-      <c r="D218" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E218" s="4" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
-        <v>688</v>
-      </c>
-      <c r="B219" t="s">
-        <v>689</v>
-      </c>
-      <c r="C219" t="s">
-        <v>690</v>
-      </c>
-      <c r="D219" t="s">
-        <v>162</v>
-      </c>
-      <c r="E219" s="1">
+    <row r="229" spans="1:5" s="4" customFormat="1" ht="12.75">
+      <c r="A229" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="B229" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="C229" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D229" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E229" s="4" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" ht="12.75">
+      <c r="A230" t="s">
+        <v>514</v>
+      </c>
+      <c r="B230" t="s">
+        <v>515</v>
+      </c>
+      <c r="C230" t="s">
+        <v>122</v>
+      </c>
+      <c r="D230" t="s">
+        <v>122</v>
+      </c>
+      <c r="E230" s="1">
         <v>46082</v>
       </c>
     </row>
-    <row r="220" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="4" t="s">
-        <v>691</v>
-      </c>
-      <c r="B220" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="C220" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="D220" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E220" s="5">
+    <row r="231" spans="1:5" s="4" customFormat="1" ht="12.75">
+      <c r="A231" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="B231" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="C231" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D231" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E231" s="5">
         <v>46082</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
-        <v>693</v>
-      </c>
-      <c r="B221" t="s">
-        <v>694</v>
-      </c>
-      <c r="C221" t="s">
-        <v>695</v>
-      </c>
-      <c r="D221" t="s">
-        <v>180</v>
-      </c>
-      <c r="E221" s="1">
+    <row r="232" spans="1:5" ht="12.75">
+      <c r="A232" t="s">
+        <v>518</v>
+      </c>
+      <c r="B232" t="s">
+        <v>519</v>
+      </c>
+      <c r="C232" t="s">
+        <v>135</v>
+      </c>
+      <c r="D232" t="s">
+        <v>135</v>
+      </c>
+      <c r="E232" s="1">
         <v>46266</v>
       </c>
     </row>
-    <row r="222" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="4" t="s">
-        <v>696</v>
-      </c>
-      <c r="B222" s="4" t="s">
-        <v>697</v>
-      </c>
-      <c r="C222" s="4" t="s">
-        <v>698</v>
-      </c>
-      <c r="D222" s="4" t="s">
-        <v>699</v>
-      </c>
-      <c r="E222" s="5">
+    <row r="233" spans="1:5" s="4" customFormat="1" ht="12.75">
+      <c r="A233" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="B233" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="C233" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="D233" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="E233" s="5">
         <v>46447</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
-        <v>700</v>
-      </c>
-      <c r="B223" t="s">
-        <v>701</v>
-      </c>
-      <c r="C223" t="s">
-        <v>702</v>
-      </c>
-      <c r="D223" t="s">
-        <v>291</v>
-      </c>
-      <c r="E223" s="1">
+    <row r="234" spans="1:5" ht="12.75">
+      <c r="A234" t="s">
+        <v>523</v>
+      </c>
+      <c r="B234" t="s">
+        <v>524</v>
+      </c>
+      <c r="C234" t="s">
+        <v>219</v>
+      </c>
+      <c r="D234" t="s">
+        <v>219</v>
+      </c>
+      <c r="E234" s="1">
         <v>45901</v>
       </c>
     </row>
-    <row r="224" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="4" t="s">
-        <v>703</v>
-      </c>
-      <c r="B224" s="4" t="s">
-        <v>704</v>
-      </c>
-      <c r="C224" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="D224" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E224" s="5">
+    <row r="235" spans="1:5" s="4" customFormat="1" ht="12.75">
+      <c r="A235" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="B235" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="C235" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D235" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E235" s="5">
         <v>46082</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
-        <v>705</v>
-      </c>
-      <c r="B225" t="s">
-        <v>706</v>
-      </c>
-      <c r="C225" t="s">
-        <v>707</v>
-      </c>
-      <c r="D225" t="s">
-        <v>88</v>
-      </c>
-      <c r="E225" s="1">
+    <row r="236" spans="1:5" ht="12.75">
+      <c r="A236" t="s">
+        <v>527</v>
+      </c>
+      <c r="B236" t="s">
+        <v>528</v>
+      </c>
+      <c r="C236" t="s">
+        <v>69</v>
+      </c>
+      <c r="D236" t="s">
+        <v>69</v>
+      </c>
+      <c r="E236" s="1">
         <v>45536</v>
       </c>
     </row>
-    <row r="226" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="4" t="s">
-        <v>708</v>
-      </c>
-      <c r="B226" s="4" t="s">
-        <v>709</v>
-      </c>
-      <c r="C226" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D226" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E226" s="5">
+    <row r="237" spans="1:5" s="4" customFormat="1" ht="12.75">
+      <c r="A237" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="B237" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="C237" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D237" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E237" s="5">
         <v>46813</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
-        <v>710</v>
-      </c>
-      <c r="B227" t="s">
-        <v>711</v>
-      </c>
-      <c r="C227" t="s">
-        <v>213</v>
-      </c>
-      <c r="D227" t="s">
-        <v>128</v>
-      </c>
-      <c r="E227" s="1">
+    <row r="238" spans="1:5" ht="12.75">
+      <c r="A238" t="s">
+        <v>531</v>
+      </c>
+      <c r="B238" t="s">
+        <v>532</v>
+      </c>
+      <c r="C238" t="s">
+        <v>98</v>
+      </c>
+      <c r="D238" t="s">
+        <v>98</v>
+      </c>
+      <c r="E238" s="1">
         <v>46997</v>
       </c>
     </row>
-    <row r="228" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="4" t="s">
-        <v>712</v>
-      </c>
-      <c r="B228" s="4" t="s">
-        <v>713</v>
-      </c>
-      <c r="C228" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="D228" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="E228" s="5">
+    <row r="239" spans="1:5" s="4" customFormat="1" ht="12.75">
+      <c r="A239" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="B239" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="C239" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D239" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="E239" s="5">
         <v>46813</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
-        <v>714</v>
-      </c>
-      <c r="B229" t="s">
-        <v>715</v>
-      </c>
-      <c r="C229" t="s">
-        <v>716</v>
-      </c>
-      <c r="D229" t="s">
-        <v>162</v>
-      </c>
-      <c r="E229" s="1">
+    <row r="240" spans="1:5" ht="12.75">
+      <c r="A240" t="s">
+        <v>535</v>
+      </c>
+      <c r="B240" t="s">
+        <v>536</v>
+      </c>
+      <c r="C240" t="s">
+        <v>122</v>
+      </c>
+      <c r="D240" t="s">
+        <v>122</v>
+      </c>
+      <c r="E240" s="1">
         <v>46997</v>
       </c>
     </row>
-    <row r="230" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="4" t="s">
-        <v>717</v>
-      </c>
-      <c r="B230" s="4" t="s">
-        <v>718</v>
-      </c>
-      <c r="C230" s="4" t="s">
-        <v>719</v>
-      </c>
-      <c r="D230" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E230" s="5">
+    <row r="241" spans="1:5" s="4" customFormat="1" ht="12.75">
+      <c r="A241" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="B241" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="C241" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D241" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E241" s="5">
         <v>46631</v>
       </c>
     </row>
-    <row r="231" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="4" t="s">
-        <v>720</v>
-      </c>
-      <c r="B231" s="4" t="s">
-        <v>721</v>
-      </c>
-      <c r="C231" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="D231" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E231" s="5">
+    <row r="242" spans="3:5" ht="12.75">
+      <c r="C242" t="s">
+        <v>45</v>
+      </c>
+      <c r="E242" s="1">
+        <v>45717</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" s="4" customFormat="1" ht="12.75">
+      <c r="A243" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="B243" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="C243" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D243" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E243" s="5">
         <v>46447</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
-        <v>722</v>
-      </c>
-      <c r="B232" t="s">
-        <v>723</v>
-      </c>
-      <c r="C232" t="s">
-        <v>225</v>
-      </c>
-      <c r="D232" t="s">
-        <v>64</v>
-      </c>
-      <c r="E232" s="1">
+    <row r="244" spans="1:5" ht="12.75">
+      <c r="A244" t="s">
+        <v>541</v>
+      </c>
+      <c r="B244" t="s">
+        <v>542</v>
+      </c>
+      <c r="C244" t="s">
+        <v>50</v>
+      </c>
+      <c r="D244" t="s">
+        <v>50</v>
+      </c>
+      <c r="E244" s="1">
         <v>46082</v>
       </c>
     </row>
-    <row r="233" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="B233" s="4" t="s">
-        <v>725</v>
-      </c>
-      <c r="C233" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D233" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E233" s="5">
+    <row r="245" spans="1:5" s="4" customFormat="1" ht="12.75">
+      <c r="A245" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="B245" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="C245" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D245" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E245" s="5">
         <v>47178</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
-        <v>726</v>
-      </c>
-      <c r="B234" t="s">
-        <v>727</v>
-      </c>
-      <c r="C234" t="s">
-        <v>303</v>
-      </c>
-      <c r="D234" t="s">
-        <v>303</v>
-      </c>
-      <c r="E234" s="1">
+    <row r="246" spans="1:5" ht="12.75">
+      <c r="A246" t="s">
+        <v>545</v>
+      </c>
+      <c r="B246" t="s">
+        <v>546</v>
+      </c>
+      <c r="C246" t="s">
+        <v>229</v>
+      </c>
+      <c r="D246" t="s">
+        <v>229</v>
+      </c>
+      <c r="E246" s="1">
         <v>45717</v>
       </c>
     </row>
-    <row r="235" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="4" t="s">
-        <v>728</v>
-      </c>
-      <c r="B235" s="4" t="s">
-        <v>729</v>
-      </c>
-      <c r="C235" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D235" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E235" s="5">
+    <row r="247" spans="1:5" s="4" customFormat="1" ht="12.75">
+      <c r="A247" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="B247" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="C247" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D247" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E247" s="5">
         <v>46447</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
-        <v>730</v>
-      </c>
-      <c r="B236" t="s">
-        <v>731</v>
-      </c>
-      <c r="C236" t="s">
-        <v>732</v>
-      </c>
-      <c r="D236" t="s">
-        <v>113</v>
-      </c>
-      <c r="E236" s="1">
+    <row r="248" spans="1:5" ht="12.75">
+      <c r="A248" t="s">
+        <v>549</v>
+      </c>
+      <c r="B248" t="s">
+        <v>550</v>
+      </c>
+      <c r="C248" t="s">
+        <v>87</v>
+      </c>
+      <c r="D248" t="s">
+        <v>87</v>
+      </c>
+      <c r="E248" s="1">
         <v>45717</v>
       </c>
     </row>
-    <row r="237" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="4" t="s">
-        <v>733</v>
-      </c>
-      <c r="B237" s="4" t="s">
-        <v>734</v>
-      </c>
-      <c r="C237" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D237" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E237" s="5">
+    <row r="249" spans="1:5" s="4" customFormat="1" ht="12.75">
+      <c r="A249" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B249" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="C249" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D249" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E249" s="5">
         <v>47178</v>
       </c>
     </row>
